--- a/stata/data.xlsx
+++ b/stata/data.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\code_tesis\stata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A055A27-0A98-4615-B81C-39E0EC50F5CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2554B746-D326-4504-8140-8C195273AB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" tabRatio="777" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" tabRatio="777" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data_etapa1" sheetId="1" r:id="rId1"/>
-    <sheet name="data_etapa1_media" sheetId="2" r:id="rId2"/>
-    <sheet name="data_etapa1_velmax" sheetId="3" r:id="rId3"/>
+    <sheet name="data_etapa1(sorted)" sheetId="8" r:id="rId1"/>
+    <sheet name="data_etapa1" sheetId="1" r:id="rId2"/>
+    <sheet name="data_etapa1_media" sheetId="2" r:id="rId3"/>
     <sheet name="data_means" sheetId="5" r:id="rId4"/>
-    <sheet name="stats" sheetId="6" r:id="rId5"/>
-    <sheet name="stats2" sheetId="7" r:id="rId6"/>
+    <sheet name="data_etapa1_velmax" sheetId="3" r:id="rId5"/>
+    <sheet name="stats" sheetId="6" r:id="rId6"/>
+    <sheet name="stats2" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">stats2!$I$3:$N$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">stats2!$I$3:$N$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="103">
   <si>
     <t>rnd</t>
   </si>
@@ -705,7 +706,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1082,12 +1083,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1228,27 +1273,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1271,6 +1295,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2767,6 +2816,337 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparacion</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> media</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Espalda</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>data_means!$B$37:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data_means!$B$17:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.85333333333333361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0533333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EA35-4A71-A41B-B084AD072FC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Antebrazo</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>data_means!$B$35:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0133333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3066666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7866666666666671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EA35-4A71-A41B-B084AD072FC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="628649263"/>
+        <c:axId val="628651759"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="628649263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628651759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="628651759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628649263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -3122,7 +3502,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3503,337 +3883,6 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Comparacion</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> media</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Espalda</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>data_means!$B$37:$G$37</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>data_means!$B$17:$G$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.85333333333333361</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0533333333333332</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.56</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EA35-4A71-A41B-B084AD072FC3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Antebrazo</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-          </c:errBars>
-          <c:val>
-            <c:numRef>
-              <c:f>data_means!$B$35:$G$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.0133333333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3066666666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7866666666666671</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4799999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0799999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EA35-4A71-A41B-B084AD072FC3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="628649263"/>
-        <c:axId val="628651759"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="628649263"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="628651759"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="628651759"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="628649263"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -6137,6 +6186,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>461961</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>204786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -6320,47 +6410,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>461961</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>204786</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6665,11 +6714,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBB609A-CF8A-4DBB-8D5C-A51EA3349F2D}">
+  <dimension ref="A1:AT48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6708,81 +6757,4566 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B1" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82" t="s">
+      <c r="B1" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82" t="s">
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82" t="s">
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82" t="s">
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82" t="s">
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82" t="s">
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82" t="s">
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82" t="s">
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82" t="s">
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82" t="s">
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82" t="s">
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82" t="s">
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="83" t="s">
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="82"/>
-      <c r="AT1" s="82"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>-4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>-6</v>
+      </c>
+      <c r="G3" s="8">
+        <v>-7</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>3</v>
+      </c>
+      <c r="J3" s="8">
+        <v>-8</v>
+      </c>
+      <c r="K3" s="6">
+        <v>2</v>
+      </c>
+      <c r="L3" s="7">
+        <v>2</v>
+      </c>
+      <c r="M3" s="8">
+        <v>4</v>
+      </c>
+      <c r="N3" s="6">
+        <v>8</v>
+      </c>
+      <c r="O3" s="7">
+        <v>8</v>
+      </c>
+      <c r="P3" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>3</v>
+      </c>
+      <c r="R3" s="7">
+        <v>1</v>
+      </c>
+      <c r="S3" s="8">
+        <v>-5</v>
+      </c>
+      <c r="T3" s="6">
+        <v>-2</v>
+      </c>
+      <c r="U3" s="7">
+        <v>-5</v>
+      </c>
+      <c r="V3" s="8">
+        <v>6</v>
+      </c>
+      <c r="W3" s="6">
+        <v>-2</v>
+      </c>
+      <c r="X3" s="7">
+        <v>-2</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>-5</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>-7</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>-7</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>-5</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>-5</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>-5</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>8</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>6</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="8">
+        <v>5</v>
+      </c>
+      <c r="AO3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>3</v>
+      </c>
+      <c r="AQ3" s="8">
+        <v>3</v>
+      </c>
+      <c r="AR3" s="7">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11">
+        <v>-4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>-6</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>9</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
+        <v>3</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>3</v>
+      </c>
+      <c r="N4" s="9">
+        <v>9</v>
+      </c>
+      <c r="O4" s="10">
+        <v>8</v>
+      </c>
+      <c r="P4" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>2</v>
+      </c>
+      <c r="R4" s="10">
+        <v>-3</v>
+      </c>
+      <c r="S4" s="11">
+        <v>6</v>
+      </c>
+      <c r="T4" s="9">
+        <v>-5</v>
+      </c>
+      <c r="U4" s="10">
+        <v>-2</v>
+      </c>
+      <c r="V4" s="11">
+        <v>6</v>
+      </c>
+      <c r="W4" s="9">
+        <v>4</v>
+      </c>
+      <c r="X4" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>-3</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>-7</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>-3</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>-7</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>-8</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AM4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="11">
+        <v>5</v>
+      </c>
+      <c r="AO4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AP4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="11">
+        <v>3</v>
+      </c>
+      <c r="AR4" s="10">
+        <v>4</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11">
+        <v>-5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>-6</v>
+      </c>
+      <c r="H5" s="9">
+        <v>6</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>-7</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10">
+        <v>3</v>
+      </c>
+      <c r="M5" s="11">
+        <v>3</v>
+      </c>
+      <c r="N5" s="9">
+        <v>8</v>
+      </c>
+      <c r="O5" s="10">
+        <v>5</v>
+      </c>
+      <c r="P5" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>3</v>
+      </c>
+      <c r="R5" s="10">
+        <v>-4</v>
+      </c>
+      <c r="S5" s="11">
+        <v>6</v>
+      </c>
+      <c r="T5" s="9">
+        <v>1</v>
+      </c>
+      <c r="U5" s="10">
+        <v>1</v>
+      </c>
+      <c r="V5" s="11">
+        <v>2</v>
+      </c>
+      <c r="W5" s="9">
+        <v>2</v>
+      </c>
+      <c r="X5" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>-2</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>-7</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>-7</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>-3</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>-5</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AM5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="AN5" s="11">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AP5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="AQ5" s="11">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="10">
+        <v>8</v>
+      </c>
+      <c r="AS5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AT5" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>-3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4</v>
+      </c>
+      <c r="J6" s="8">
+        <v>-4</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2</v>
+      </c>
+      <c r="M6" s="8">
+        <v>2</v>
+      </c>
+      <c r="N6" s="6">
+        <v>7</v>
+      </c>
+      <c r="O6" s="7">
+        <v>8</v>
+      </c>
+      <c r="P6" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="7">
+        <v>-6</v>
+      </c>
+      <c r="S6" s="8">
+        <v>3</v>
+      </c>
+      <c r="T6" s="6">
+        <v>6</v>
+      </c>
+      <c r="U6" s="7">
+        <v>2</v>
+      </c>
+      <c r="V6" s="8">
+        <v>3</v>
+      </c>
+      <c r="W6" s="6">
+        <v>2</v>
+      </c>
+      <c r="X6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>-2</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>-2</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>-6</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>-4</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>-9</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="6">
+        <v>6</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AO6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="8">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="7">
+        <v>8</v>
+      </c>
+      <c r="AS6" s="7">
+        <v>5</v>
+      </c>
+      <c r="AT6" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11">
+        <v>-2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-6</v>
+      </c>
+      <c r="G7" s="11">
+        <v>-4</v>
+      </c>
+      <c r="H7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="10">
+        <v>2</v>
+      </c>
+      <c r="J7" s="11">
+        <v>-5</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10">
+        <v>2</v>
+      </c>
+      <c r="M7" s="11">
+        <v>2</v>
+      </c>
+      <c r="N7" s="9">
+        <v>7</v>
+      </c>
+      <c r="O7" s="10">
+        <v>8</v>
+      </c>
+      <c r="P7" s="11">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>2</v>
+      </c>
+      <c r="R7" s="10">
+        <v>1</v>
+      </c>
+      <c r="S7" s="11">
+        <v>6</v>
+      </c>
+      <c r="T7" s="9">
+        <v>-5</v>
+      </c>
+      <c r="U7" s="10">
+        <v>1</v>
+      </c>
+      <c r="V7" s="11">
+        <v>3</v>
+      </c>
+      <c r="W7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="X7" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>-6</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>-5</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>-6</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>9</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>9</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>-1</v>
+      </c>
+      <c r="AN7" s="11">
+        <v>4</v>
+      </c>
+      <c r="AO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="10">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AS7" s="10">
+        <v>4</v>
+      </c>
+      <c r="AT7" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11">
+        <v>-2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>-8</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9">
+        <v>3</v>
+      </c>
+      <c r="I8" s="10">
+        <v>3</v>
+      </c>
+      <c r="J8" s="11">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="9">
+        <v>3</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>3</v>
+      </c>
+      <c r="N8" s="9">
+        <v>7</v>
+      </c>
+      <c r="O8" s="10">
+        <v>7</v>
+      </c>
+      <c r="P8" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>-2</v>
+      </c>
+      <c r="R8" s="10">
+        <v>-3</v>
+      </c>
+      <c r="S8" s="11">
+        <v>5</v>
+      </c>
+      <c r="T8" s="9">
+        <v>-3</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
+        <v>1</v>
+      </c>
+      <c r="W8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="X8" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>-7</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>-7</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>-3</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>-2</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>3</v>
+      </c>
+      <c r="AK8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="9">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AN8" s="11">
+        <v>4</v>
+      </c>
+      <c r="AO8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="10">
+        <v>3</v>
+      </c>
+      <c r="AQ8" s="11">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AS8" s="10">
+        <v>8</v>
+      </c>
+      <c r="AT8" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>-2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>7</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2</v>
+      </c>
+      <c r="M9" s="8">
+        <v>2</v>
+      </c>
+      <c r="N9" s="6">
+        <v>6</v>
+      </c>
+      <c r="O9" s="7">
+        <v>6</v>
+      </c>
+      <c r="P9" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>1</v>
+      </c>
+      <c r="R9" s="7">
+        <v>3</v>
+      </c>
+      <c r="S9" s="8">
+        <v>2</v>
+      </c>
+      <c r="T9" s="6">
+        <v>6</v>
+      </c>
+      <c r="U9" s="7">
+        <v>7</v>
+      </c>
+      <c r="V9" s="8">
+        <v>4</v>
+      </c>
+      <c r="W9" s="6">
+        <v>2</v>
+      </c>
+      <c r="X9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>-1</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>-6</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>9</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>5</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>4</v>
+      </c>
+      <c r="AL9" s="6">
+        <v>6</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>6</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>4</v>
+      </c>
+      <c r="AO9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="7">
+        <v>5</v>
+      </c>
+      <c r="AQ9" s="8">
+        <v>2</v>
+      </c>
+      <c r="AR9" s="7">
+        <v>6</v>
+      </c>
+      <c r="AS9" s="7">
+        <v>4</v>
+      </c>
+      <c r="AT9" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>30</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>2</v>
+      </c>
+      <c r="H10" s="9">
+        <v>5</v>
+      </c>
+      <c r="I10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2</v>
+      </c>
+      <c r="L10" s="10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="11">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9">
+        <v>7</v>
+      </c>
+      <c r="O10" s="10">
+        <v>6</v>
+      </c>
+      <c r="P10" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="10">
+        <v>3</v>
+      </c>
+      <c r="S10" s="11">
+        <v>2</v>
+      </c>
+      <c r="T10" s="9">
+        <v>1</v>
+      </c>
+      <c r="U10" s="10">
+        <v>3</v>
+      </c>
+      <c r="V10" s="11">
+        <v>4</v>
+      </c>
+      <c r="W10" s="9">
+        <v>3</v>
+      </c>
+      <c r="X10" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>-3</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>-3</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="11">
+        <v>4</v>
+      </c>
+      <c r="AI10" s="9">
+        <v>5</v>
+      </c>
+      <c r="AJ10" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK10" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL10" s="9">
+        <v>3</v>
+      </c>
+      <c r="AM10" s="10">
+        <v>2</v>
+      </c>
+      <c r="AN10" s="11">
+        <v>4</v>
+      </c>
+      <c r="AO10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="10">
+        <v>5</v>
+      </c>
+      <c r="AQ10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="10">
+        <v>3</v>
+      </c>
+      <c r="AS10" s="10">
+        <v>3</v>
+      </c>
+      <c r="AT10" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10">
+        <v>6</v>
+      </c>
+      <c r="D11" s="11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10">
+        <v>4</v>
+      </c>
+      <c r="G11" s="11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
+        <v>-2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2</v>
+      </c>
+      <c r="L11" s="10">
+        <v>2</v>
+      </c>
+      <c r="M11" s="11">
+        <v>2</v>
+      </c>
+      <c r="N11" s="9">
+        <v>5</v>
+      </c>
+      <c r="O11" s="10">
+        <v>7</v>
+      </c>
+      <c r="P11" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+      <c r="R11" s="10">
+        <v>2</v>
+      </c>
+      <c r="S11" s="11">
+        <v>-2</v>
+      </c>
+      <c r="T11" s="9">
+        <v>5</v>
+      </c>
+      <c r="U11" s="10">
+        <v>5</v>
+      </c>
+      <c r="V11" s="11">
+        <v>3</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0</v>
+      </c>
+      <c r="X11" s="10">
+        <v>-2</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>-2</v>
+      </c>
+      <c r="AD11" s="10">
+        <v>-2</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>-4</v>
+      </c>
+      <c r="AF11" s="9">
+        <v>4</v>
+      </c>
+      <c r="AG11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>4</v>
+      </c>
+      <c r="AI11" s="9">
+        <v>7</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>3</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="9">
+        <v>6</v>
+      </c>
+      <c r="AM11" s="10">
+        <v>5</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>5</v>
+      </c>
+      <c r="AO11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="10">
+        <v>5</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>3</v>
+      </c>
+      <c r="AR11" s="10">
+        <v>5</v>
+      </c>
+      <c r="AS11" s="10">
+        <v>7</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>50</v>
+      </c>
+      <c r="B12" s="6">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>-2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8">
+        <v>-2</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
+        <v>4</v>
+      </c>
+      <c r="O12" s="7">
+        <v>5</v>
+      </c>
+      <c r="P12" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="7">
+        <v>4</v>
+      </c>
+      <c r="S12" s="8">
+        <v>1</v>
+      </c>
+      <c r="T12" s="6">
+        <v>4</v>
+      </c>
+      <c r="U12" s="7">
+        <v>2</v>
+      </c>
+      <c r="V12" s="8">
+        <v>4</v>
+      </c>
+      <c r="W12" s="6">
+        <v>1</v>
+      </c>
+      <c r="X12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>-1</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>-2</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>-4</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="6">
+        <v>3</v>
+      </c>
+      <c r="AJ12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="6">
+        <v>6</v>
+      </c>
+      <c r="AM12" s="7">
+        <v>8</v>
+      </c>
+      <c r="AN12" s="8">
+        <v>2</v>
+      </c>
+      <c r="AO12" s="6">
+        <v>3</v>
+      </c>
+      <c r="AP12" s="7">
+        <v>4</v>
+      </c>
+      <c r="AQ12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="7">
+        <v>2</v>
+      </c>
+      <c r="AS12" s="7">
+        <v>6</v>
+      </c>
+      <c r="AT12" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>50</v>
+      </c>
+      <c r="B13" s="9">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10">
+        <v>5</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>3</v>
+      </c>
+      <c r="H13" s="9">
+        <v>-5</v>
+      </c>
+      <c r="I13" s="10">
+        <v>-2</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10">
+        <v>2</v>
+      </c>
+      <c r="M13" s="11">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9">
+        <v>6</v>
+      </c>
+      <c r="O13" s="10">
+        <v>5</v>
+      </c>
+      <c r="P13" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>1</v>
+      </c>
+      <c r="R13" s="10">
+        <v>1</v>
+      </c>
+      <c r="S13" s="11">
+        <v>1</v>
+      </c>
+      <c r="T13" s="9">
+        <v>5</v>
+      </c>
+      <c r="U13" s="10">
+        <v>3</v>
+      </c>
+      <c r="V13" s="11">
+        <v>-3</v>
+      </c>
+      <c r="W13" s="9">
+        <v>1</v>
+      </c>
+      <c r="X13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="10">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>-3</v>
+      </c>
+      <c r="AF13" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="9">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="9">
+        <v>4</v>
+      </c>
+      <c r="AM13" s="10">
+        <v>7</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>3</v>
+      </c>
+      <c r="AO13" s="9">
+        <v>5</v>
+      </c>
+      <c r="AP13" s="10">
+        <v>5</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="10">
+        <v>4</v>
+      </c>
+      <c r="AS13" s="10">
+        <v>6</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>50</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11">
+        <v>3</v>
+      </c>
+      <c r="H14" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11">
+        <v>2</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10">
+        <v>2</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>6</v>
+      </c>
+      <c r="O14" s="10">
+        <v>5</v>
+      </c>
+      <c r="P14" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="10">
+        <v>-2</v>
+      </c>
+      <c r="S14" s="11">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="9">
+        <v>3</v>
+      </c>
+      <c r="U14" s="10">
+        <v>3</v>
+      </c>
+      <c r="V14" s="11">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>4</v>
+      </c>
+      <c r="X14" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>-2</v>
+      </c>
+      <c r="AD14" s="10">
+        <v>-7</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>-3</v>
+      </c>
+      <c r="AF14" s="9">
+        <v>9</v>
+      </c>
+      <c r="AG14" s="10">
+        <v>7</v>
+      </c>
+      <c r="AH14" s="11">
+        <v>3</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>6</v>
+      </c>
+      <c r="AJ14" s="10">
+        <v>3</v>
+      </c>
+      <c r="AK14" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL14" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM14" s="10">
+        <v>5</v>
+      </c>
+      <c r="AN14" s="11">
+        <v>3</v>
+      </c>
+      <c r="AO14" s="9">
+        <v>3</v>
+      </c>
+      <c r="AP14" s="10">
+        <v>3</v>
+      </c>
+      <c r="AQ14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="10">
+        <v>4</v>
+      </c>
+      <c r="AS14" s="10">
+        <v>3</v>
+      </c>
+      <c r="AT14" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>100</v>
+      </c>
+      <c r="B15" s="6">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>-2</v>
+      </c>
+      <c r="G15" s="8">
+        <v>2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="8">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6">
+        <v>4</v>
+      </c>
+      <c r="O15" s="7">
+        <v>6</v>
+      </c>
+      <c r="P15" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="7">
+        <v>-2</v>
+      </c>
+      <c r="S15" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="6">
+        <v>2</v>
+      </c>
+      <c r="U15" s="7">
+        <v>4</v>
+      </c>
+      <c r="V15" s="8">
+        <v>0</v>
+      </c>
+      <c r="W15" s="6">
+        <v>3</v>
+      </c>
+      <c r="X15" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>-4</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>9</v>
+      </c>
+      <c r="AG15" s="7">
+        <v>7</v>
+      </c>
+      <c r="AH15" s="8">
+        <v>2</v>
+      </c>
+      <c r="AI15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AL15" s="6">
+        <v>6</v>
+      </c>
+      <c r="AM15" s="7">
+        <v>7</v>
+      </c>
+      <c r="AN15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="6">
+        <v>3</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>5</v>
+      </c>
+      <c r="AQ15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="7">
+        <v>2</v>
+      </c>
+      <c r="AS15" s="7">
+        <v>3</v>
+      </c>
+      <c r="AT15" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>100</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-3</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-2</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11">
+        <v>-3</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <v>1</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>5</v>
+      </c>
+      <c r="O16" s="10">
+        <v>4</v>
+      </c>
+      <c r="P16" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="10">
+        <v>2</v>
+      </c>
+      <c r="S16" s="11">
+        <v>1</v>
+      </c>
+      <c r="T16" s="9">
+        <v>4</v>
+      </c>
+      <c r="U16" s="10">
+        <v>4</v>
+      </c>
+      <c r="V16" s="11">
+        <v>-2</v>
+      </c>
+      <c r="W16" s="9">
+        <v>2</v>
+      </c>
+      <c r="X16" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>-1</v>
+      </c>
+      <c r="AB16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>-4</v>
+      </c>
+      <c r="AD16" s="10">
+        <v>-1</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="10">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>6</v>
+      </c>
+      <c r="AJ16" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="9">
+        <v>6</v>
+      </c>
+      <c r="AM16" s="10">
+        <v>6</v>
+      </c>
+      <c r="AN16" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AO16" s="9">
+        <v>3</v>
+      </c>
+      <c r="AP16" s="10">
+        <v>4</v>
+      </c>
+      <c r="AQ16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="10">
+        <v>3</v>
+      </c>
+      <c r="AS16" s="10">
+        <v>3</v>
+      </c>
+      <c r="AT16" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>100</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>-2</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-2</v>
+      </c>
+      <c r="H17" s="9">
+        <v>-3</v>
+      </c>
+      <c r="I17" s="10">
+        <v>-2</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="10">
+        <v>2</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>3</v>
+      </c>
+      <c r="O17" s="10">
+        <v>3</v>
+      </c>
+      <c r="P17" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R17" s="10">
+        <v>-1</v>
+      </c>
+      <c r="S17" s="11">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="9">
+        <v>5</v>
+      </c>
+      <c r="U17" s="10">
+        <v>5</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9">
+        <v>3</v>
+      </c>
+      <c r="X17" s="10">
+        <v>-1</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>-2</v>
+      </c>
+      <c r="AD17" s="10">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="10">
+        <v>-3</v>
+      </c>
+      <c r="AH17" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="9">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL17" s="9">
+        <v>3</v>
+      </c>
+      <c r="AM17" s="10">
+        <v>6</v>
+      </c>
+      <c r="AN17" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="9">
+        <v>5</v>
+      </c>
+      <c r="AP17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="10">
+        <v>7</v>
+      </c>
+      <c r="AS17" s="10">
+        <v>3</v>
+      </c>
+      <c r="AT17" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>200</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F18" s="10">
+        <v>-3</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-2</v>
+      </c>
+      <c r="H18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="10">
+        <v>-2</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>4</v>
+      </c>
+      <c r="O18" s="10">
+        <v>3</v>
+      </c>
+      <c r="P18" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="10">
+        <v>1</v>
+      </c>
+      <c r="S18" s="11">
+        <v>-2</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="10">
+        <v>6</v>
+      </c>
+      <c r="V18" s="11">
+        <v>-1</v>
+      </c>
+      <c r="W18" s="9">
+        <v>3</v>
+      </c>
+      <c r="X18" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>-1</v>
+      </c>
+      <c r="AB18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>-2</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE18" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AF18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AG18" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AI18" s="9">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="9">
+        <v>5</v>
+      </c>
+      <c r="AM18" s="10">
+        <v>7</v>
+      </c>
+      <c r="AN18" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AO18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="10">
+        <v>4</v>
+      </c>
+      <c r="AQ18" s="11">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>200</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>-4</v>
+      </c>
+      <c r="F19" s="10">
+        <v>4</v>
+      </c>
+      <c r="G19" s="11">
+        <v>-3</v>
+      </c>
+      <c r="H19" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="10">
+        <v>-2</v>
+      </c>
+      <c r="J19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="10">
+        <v>1</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>4</v>
+      </c>
+      <c r="O19" s="10">
+        <v>3</v>
+      </c>
+      <c r="P19" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="10">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="9">
+        <v>-6</v>
+      </c>
+      <c r="U19" s="10">
+        <v>-3</v>
+      </c>
+      <c r="V19" s="11">
+        <v>-2</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0</v>
+      </c>
+      <c r="X19" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="10">
+        <v>-1</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="10">
+        <v>2</v>
+      </c>
+      <c r="AH19" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AI19" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="9">
+        <v>7</v>
+      </c>
+      <c r="AM19" s="10">
+        <v>-2</v>
+      </c>
+      <c r="AN19" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="10">
+        <v>2</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS19" s="10">
+        <v>2</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="97">
+        <v>200</v>
+      </c>
+      <c r="B20" s="98">
+        <v>3</v>
+      </c>
+      <c r="C20" s="99">
+        <v>3</v>
+      </c>
+      <c r="D20" s="100">
+        <v>0</v>
+      </c>
+      <c r="E20" s="98">
+        <v>-3</v>
+      </c>
+      <c r="F20" s="99">
+        <v>2</v>
+      </c>
+      <c r="G20" s="100">
+        <v>-3</v>
+      </c>
+      <c r="H20" s="98">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="99">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="100">
+        <v>1</v>
+      </c>
+      <c r="K20" s="98">
+        <v>0</v>
+      </c>
+      <c r="L20" s="99">
+        <v>1</v>
+      </c>
+      <c r="M20" s="100">
+        <v>0</v>
+      </c>
+      <c r="N20" s="98">
+        <v>3</v>
+      </c>
+      <c r="O20" s="99">
+        <v>4</v>
+      </c>
+      <c r="P20" s="100">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="98">
+        <v>-7</v>
+      </c>
+      <c r="R20" s="99">
+        <v>-1</v>
+      </c>
+      <c r="S20" s="100">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="98">
+        <v>5</v>
+      </c>
+      <c r="U20" s="99">
+        <v>-2</v>
+      </c>
+      <c r="V20" s="100">
+        <v>-1</v>
+      </c>
+      <c r="W20" s="98">
+        <v>2</v>
+      </c>
+      <c r="X20" s="99">
+        <v>-1</v>
+      </c>
+      <c r="Y20" s="100">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="98">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="99">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="100">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="98">
+        <v>-3</v>
+      </c>
+      <c r="AD20" s="99">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="100">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="98">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="99">
+        <v>7</v>
+      </c>
+      <c r="AH20" s="100">
+        <v>-1</v>
+      </c>
+      <c r="AI20" s="98">
+        <v>2</v>
+      </c>
+      <c r="AJ20" s="99">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="100">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="98">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="99">
+        <v>4</v>
+      </c>
+      <c r="AN20" s="100">
+        <v>-1</v>
+      </c>
+      <c r="AO20" s="98">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="99">
+        <v>3</v>
+      </c>
+      <c r="AQ20" s="100">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="99">
+        <v>3</v>
+      </c>
+      <c r="AS20" s="99">
+        <v>2</v>
+      </c>
+      <c r="AT20" s="100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21" s="9">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11">
+        <v>-4</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11">
+        <v>-4</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>4</v>
+      </c>
+      <c r="J21" s="11">
+        <v>-4</v>
+      </c>
+      <c r="K21" s="9">
+        <v>3</v>
+      </c>
+      <c r="L21" s="10">
+        <v>1</v>
+      </c>
+      <c r="M21" s="11">
+        <v>3</v>
+      </c>
+      <c r="N21" s="9">
+        <v>8</v>
+      </c>
+      <c r="O21" s="10">
+        <v>8</v>
+      </c>
+      <c r="P21" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>1</v>
+      </c>
+      <c r="R21" s="10">
+        <v>-1</v>
+      </c>
+      <c r="S21" s="11">
+        <v>-5</v>
+      </c>
+      <c r="T21" s="9">
+        <v>-4</v>
+      </c>
+      <c r="U21" s="10">
+        <v>-5</v>
+      </c>
+      <c r="V21" s="11">
+        <v>3</v>
+      </c>
+      <c r="W21" s="9">
+        <v>-1</v>
+      </c>
+      <c r="X21" s="10">
+        <v>-1</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>-2</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AA21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="9">
+        <v>-7</v>
+      </c>
+      <c r="AD21" s="10">
+        <v>-3</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AF21" s="9">
+        <v>-10</v>
+      </c>
+      <c r="AG21" s="10">
+        <v>3</v>
+      </c>
+      <c r="AH21" s="11">
+        <v>8</v>
+      </c>
+      <c r="AI21" s="9">
+        <v>2</v>
+      </c>
+      <c r="AJ21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="11">
+        <v>6</v>
+      </c>
+      <c r="AL21" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM21" s="10">
+        <v>2</v>
+      </c>
+      <c r="AN21" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="10">
+        <v>2</v>
+      </c>
+      <c r="AQ21" s="11">
+        <v>3</v>
+      </c>
+      <c r="AR21" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS21" s="10">
+        <v>3</v>
+      </c>
+      <c r="AT21" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>3</v>
+      </c>
+      <c r="B22" s="12">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13">
+        <v>2</v>
+      </c>
+      <c r="D22" s="14">
+        <v>-4</v>
+      </c>
+      <c r="E22" s="12">
+        <v>-2</v>
+      </c>
+      <c r="F22" s="13">
+        <v>-2</v>
+      </c>
+      <c r="G22" s="14">
+        <v>-5</v>
+      </c>
+      <c r="H22" s="12">
+        <v>2</v>
+      </c>
+      <c r="I22" s="13">
+        <v>5</v>
+      </c>
+      <c r="J22" s="14">
+        <v>1</v>
+      </c>
+      <c r="K22" s="12">
+        <v>2</v>
+      </c>
+      <c r="L22" s="13">
+        <v>2</v>
+      </c>
+      <c r="M22" s="14">
+        <v>3</v>
+      </c>
+      <c r="N22" s="12">
+        <v>7</v>
+      </c>
+      <c r="O22" s="13">
+        <v>8</v>
+      </c>
+      <c r="P22" s="14">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>2</v>
+      </c>
+      <c r="R22" s="13">
+        <v>-5</v>
+      </c>
+      <c r="S22" s="14">
+        <v>5</v>
+      </c>
+      <c r="T22" s="12">
+        <v>-2</v>
+      </c>
+      <c r="U22" s="13">
+        <v>-3</v>
+      </c>
+      <c r="V22" s="14">
+        <v>5</v>
+      </c>
+      <c r="W22" s="12">
+        <v>-4</v>
+      </c>
+      <c r="X22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>-7</v>
+      </c>
+      <c r="AD22" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="14">
+        <v>-6</v>
+      </c>
+      <c r="AF22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AG22" s="13">
+        <v>6</v>
+      </c>
+      <c r="AH22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="12">
+        <v>5</v>
+      </c>
+      <c r="AJ22" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK22" s="14">
+        <v>3</v>
+      </c>
+      <c r="AL22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="13">
+        <v>6</v>
+      </c>
+      <c r="AN22" s="14">
+        <v>2</v>
+      </c>
+      <c r="AO22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AP22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS22" s="13">
+        <v>3</v>
+      </c>
+      <c r="AT22" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>10</v>
+      </c>
+      <c r="B23" s="9">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11">
+        <v>-3</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>2</v>
+      </c>
+      <c r="G23" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="9">
+        <v>8</v>
+      </c>
+      <c r="I23" s="10">
+        <v>7</v>
+      </c>
+      <c r="J23" s="11">
+        <v>-3</v>
+      </c>
+      <c r="K23" s="9">
+        <v>2</v>
+      </c>
+      <c r="L23" s="10">
+        <v>3</v>
+      </c>
+      <c r="M23" s="11">
+        <v>2</v>
+      </c>
+      <c r="N23" s="9">
+        <v>7</v>
+      </c>
+      <c r="O23" s="10">
+        <v>8</v>
+      </c>
+      <c r="P23" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>-5</v>
+      </c>
+      <c r="R23" s="10">
+        <v>4</v>
+      </c>
+      <c r="S23" s="11">
+        <v>2</v>
+      </c>
+      <c r="T23" s="9">
+        <v>-1</v>
+      </c>
+      <c r="U23" s="10">
+        <v>3</v>
+      </c>
+      <c r="V23" s="11">
+        <v>1</v>
+      </c>
+      <c r="W23" s="9">
+        <v>0</v>
+      </c>
+      <c r="X23" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AD23" s="10">
+        <v>-3</v>
+      </c>
+      <c r="AE23" s="11">
+        <v>-4</v>
+      </c>
+      <c r="AF23" s="9">
+        <v>9</v>
+      </c>
+      <c r="AG23" s="10">
+        <v>9</v>
+      </c>
+      <c r="AH23" s="11">
+        <v>9</v>
+      </c>
+      <c r="AI23" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ23" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK23" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL23" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AM23" s="10">
+        <v>7</v>
+      </c>
+      <c r="AN23" s="11">
+        <v>6</v>
+      </c>
+      <c r="AO23" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="10">
+        <v>3</v>
+      </c>
+      <c r="AQ23" s="11">
+        <v>4</v>
+      </c>
+      <c r="AR23" s="10">
+        <v>6</v>
+      </c>
+      <c r="AS23" s="10">
+        <v>3</v>
+      </c>
+      <c r="AT23" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>10</v>
+      </c>
+      <c r="B24" s="12">
+        <v>6</v>
+      </c>
+      <c r="C24" s="13">
+        <v>7</v>
+      </c>
+      <c r="D24" s="14">
+        <v>-3</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13">
+        <v>3</v>
+      </c>
+      <c r="G24" s="14">
+        <v>-2</v>
+      </c>
+      <c r="H24" s="12">
+        <v>3</v>
+      </c>
+      <c r="I24" s="13">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14">
+        <v>1</v>
+      </c>
+      <c r="K24" s="12">
+        <v>2</v>
+      </c>
+      <c r="L24" s="13">
+        <v>1</v>
+      </c>
+      <c r="M24" s="14">
+        <v>2</v>
+      </c>
+      <c r="N24" s="12">
+        <v>7</v>
+      </c>
+      <c r="O24" s="13">
+        <v>7</v>
+      </c>
+      <c r="P24" s="14">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>2</v>
+      </c>
+      <c r="R24" s="13">
+        <v>2</v>
+      </c>
+      <c r="S24" s="14">
+        <v>6</v>
+      </c>
+      <c r="T24" s="12">
+        <v>-2</v>
+      </c>
+      <c r="U24" s="13">
+        <v>-2</v>
+      </c>
+      <c r="V24" s="14">
+        <v>6</v>
+      </c>
+      <c r="W24" s="12">
+        <v>2</v>
+      </c>
+      <c r="X24" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="12">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="13">
+        <v>-6</v>
+      </c>
+      <c r="AE24" s="14">
+        <v>2</v>
+      </c>
+      <c r="AF24" s="12">
+        <v>-8</v>
+      </c>
+      <c r="AG24" s="13">
+        <v>9</v>
+      </c>
+      <c r="AH24" s="14">
+        <v>9</v>
+      </c>
+      <c r="AI24" s="12">
+        <v>2</v>
+      </c>
+      <c r="AJ24" s="13">
+        <v>4</v>
+      </c>
+      <c r="AK24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="12">
+        <v>6</v>
+      </c>
+      <c r="AM24" s="13">
+        <v>7</v>
+      </c>
+      <c r="AN24" s="14">
+        <v>6</v>
+      </c>
+      <c r="AO24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="13">
+        <v>5</v>
+      </c>
+      <c r="AQ24" s="14">
+        <v>4</v>
+      </c>
+      <c r="AR24" s="13">
+        <v>8</v>
+      </c>
+      <c r="AS24" s="13">
+        <v>5</v>
+      </c>
+      <c r="AT24" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>30</v>
+      </c>
+      <c r="B25" s="9">
+        <v>5</v>
+      </c>
+      <c r="C25" s="10">
+        <v>6</v>
+      </c>
+      <c r="D25" s="11">
+        <v>2</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2</v>
+      </c>
+      <c r="F25" s="10">
+        <v>3</v>
+      </c>
+      <c r="G25" s="11">
+        <v>3</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10">
+        <v>2</v>
+      </c>
+      <c r="J25" s="11">
+        <v>2</v>
+      </c>
+      <c r="K25" s="9">
+        <v>2</v>
+      </c>
+      <c r="L25" s="10">
+        <v>1</v>
+      </c>
+      <c r="M25" s="11">
+        <v>1</v>
+      </c>
+      <c r="N25" s="9">
+        <v>5</v>
+      </c>
+      <c r="O25" s="10">
+        <v>6</v>
+      </c>
+      <c r="P25" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>-2</v>
+      </c>
+      <c r="R25" s="10">
+        <v>1</v>
+      </c>
+      <c r="S25" s="11">
+        <v>1</v>
+      </c>
+      <c r="T25" s="9">
+        <v>5</v>
+      </c>
+      <c r="U25" s="10">
+        <v>7</v>
+      </c>
+      <c r="V25" s="11">
+        <v>3</v>
+      </c>
+      <c r="W25" s="9">
+        <v>0</v>
+      </c>
+      <c r="X25" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>-4</v>
+      </c>
+      <c r="AD25" s="10">
+        <v>-2</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>-4</v>
+      </c>
+      <c r="AF25" s="9">
+        <v>10</v>
+      </c>
+      <c r="AG25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="11">
+        <v>3</v>
+      </c>
+      <c r="AI25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="10">
+        <v>3</v>
+      </c>
+      <c r="AK25" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL25" s="9">
+        <v>5</v>
+      </c>
+      <c r="AM25" s="10">
+        <v>7</v>
+      </c>
+      <c r="AN25" s="11">
+        <v>5</v>
+      </c>
+      <c r="AO25" s="9">
+        <v>2</v>
+      </c>
+      <c r="AP25" s="10">
+        <v>5</v>
+      </c>
+      <c r="AQ25" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AR25" s="10">
+        <v>4</v>
+      </c>
+      <c r="AS25" s="10">
+        <v>4</v>
+      </c>
+      <c r="AT25" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>30</v>
+      </c>
+      <c r="B26" s="12">
+        <v>2</v>
+      </c>
+      <c r="C26" s="13">
+        <v>3</v>
+      </c>
+      <c r="D26" s="14">
+        <v>3</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2</v>
+      </c>
+      <c r="F26" s="13">
+        <v>-6</v>
+      </c>
+      <c r="G26" s="14">
+        <v>-2</v>
+      </c>
+      <c r="H26" s="12">
+        <v>-3</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1</v>
+      </c>
+      <c r="J26" s="14">
+        <v>1</v>
+      </c>
+      <c r="K26" s="12">
+        <v>2</v>
+      </c>
+      <c r="L26" s="13">
+        <v>1</v>
+      </c>
+      <c r="M26" s="14">
+        <v>1</v>
+      </c>
+      <c r="N26" s="12">
+        <v>5</v>
+      </c>
+      <c r="O26" s="13">
+        <v>6</v>
+      </c>
+      <c r="P26" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>1</v>
+      </c>
+      <c r="R26" s="13">
+        <v>4</v>
+      </c>
+      <c r="S26" s="14">
+        <v>-1</v>
+      </c>
+      <c r="T26" s="12">
+        <v>3</v>
+      </c>
+      <c r="U26" s="13">
+        <v>5</v>
+      </c>
+      <c r="V26" s="14">
+        <v>3</v>
+      </c>
+      <c r="W26" s="12">
+        <v>2</v>
+      </c>
+      <c r="X26" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="12">
+        <v>-6</v>
+      </c>
+      <c r="AD26" s="13">
+        <v>-6</v>
+      </c>
+      <c r="AE26" s="14">
+        <v>-6</v>
+      </c>
+      <c r="AF26" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="14">
+        <v>9</v>
+      </c>
+      <c r="AI26" s="12">
+        <v>-2</v>
+      </c>
+      <c r="AJ26" s="13">
+        <v>4</v>
+      </c>
+      <c r="AK26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="12">
+        <v>7</v>
+      </c>
+      <c r="AM26" s="13">
+        <v>3</v>
+      </c>
+      <c r="AN26" s="14">
+        <v>4</v>
+      </c>
+      <c r="AO26" s="12">
+        <v>4</v>
+      </c>
+      <c r="AP26" s="13">
+        <v>5</v>
+      </c>
+      <c r="AQ26" s="14">
+        <v>4</v>
+      </c>
+      <c r="AR26" s="13">
+        <v>4</v>
+      </c>
+      <c r="AS26" s="13">
+        <v>7</v>
+      </c>
+      <c r="AT26" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>50</v>
+      </c>
+      <c r="B27" s="9">
+        <v>4</v>
+      </c>
+      <c r="C27" s="10">
+        <v>5</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>-6</v>
+      </c>
+      <c r="G27" s="11">
+        <v>3</v>
+      </c>
+      <c r="H27" s="9">
+        <v>4</v>
+      </c>
+      <c r="I27" s="10">
+        <v>3</v>
+      </c>
+      <c r="J27" s="11">
+        <v>-4</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1</v>
+      </c>
+      <c r="L27" s="10">
+        <v>1</v>
+      </c>
+      <c r="M27" s="11">
+        <v>1</v>
+      </c>
+      <c r="N27" s="9">
+        <v>4</v>
+      </c>
+      <c r="O27" s="10">
+        <v>3</v>
+      </c>
+      <c r="P27" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>1</v>
+      </c>
+      <c r="R27" s="10">
+        <v>5</v>
+      </c>
+      <c r="S27" s="11">
+        <v>-1</v>
+      </c>
+      <c r="T27" s="9">
+        <v>7</v>
+      </c>
+      <c r="U27" s="10">
+        <v>4</v>
+      </c>
+      <c r="V27" s="11">
+        <v>1</v>
+      </c>
+      <c r="W27" s="9">
+        <v>1</v>
+      </c>
+      <c r="X27" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="9">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="10">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="11">
+        <v>-3</v>
+      </c>
+      <c r="AF27" s="9">
+        <v>2</v>
+      </c>
+      <c r="AG27" s="10">
+        <v>-1</v>
+      </c>
+      <c r="AH27" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AI27" s="9">
+        <v>4</v>
+      </c>
+      <c r="AJ27" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK27" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="9">
+        <v>3</v>
+      </c>
+      <c r="AM27" s="10">
+        <v>6</v>
+      </c>
+      <c r="AN27" s="11">
+        <v>3</v>
+      </c>
+      <c r="AO27" s="9">
+        <v>4</v>
+      </c>
+      <c r="AP27" s="10">
+        <v>5</v>
+      </c>
+      <c r="AQ27" s="11">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS27" s="10">
+        <v>5</v>
+      </c>
+      <c r="AT27" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>50</v>
+      </c>
+      <c r="B28" s="12">
+        <v>2</v>
+      </c>
+      <c r="C28" s="13">
+        <v>5</v>
+      </c>
+      <c r="D28" s="14">
+        <v>3</v>
+      </c>
+      <c r="E28" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="13">
+        <v>5</v>
+      </c>
+      <c r="G28" s="14">
+        <v>3</v>
+      </c>
+      <c r="H28" s="12">
+        <v>1</v>
+      </c>
+      <c r="I28" s="13">
+        <v>2</v>
+      </c>
+      <c r="J28" s="14">
+        <v>2</v>
+      </c>
+      <c r="K28" s="12">
+        <v>3</v>
+      </c>
+      <c r="L28" s="13">
+        <v>3</v>
+      </c>
+      <c r="M28" s="14">
+        <v>0</v>
+      </c>
+      <c r="N28" s="12">
+        <v>5</v>
+      </c>
+      <c r="O28" s="13">
+        <v>3</v>
+      </c>
+      <c r="P28" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>1</v>
+      </c>
+      <c r="R28" s="13">
+        <v>-2</v>
+      </c>
+      <c r="S28" s="14">
+        <v>2</v>
+      </c>
+      <c r="T28" s="12">
+        <v>4</v>
+      </c>
+      <c r="U28" s="13">
+        <v>4</v>
+      </c>
+      <c r="V28" s="14">
+        <v>2</v>
+      </c>
+      <c r="W28" s="12">
+        <v>1</v>
+      </c>
+      <c r="X28" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="14">
+        <v>3</v>
+      </c>
+      <c r="Z28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="12">
+        <v>3</v>
+      </c>
+      <c r="AD28" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AE28" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AF28" s="12">
+        <v>5</v>
+      </c>
+      <c r="AG28" s="13">
+        <v>-8</v>
+      </c>
+      <c r="AH28" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="13">
+        <v>4</v>
+      </c>
+      <c r="AK28" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="13">
+        <v>2</v>
+      </c>
+      <c r="AN28" s="14">
+        <v>5</v>
+      </c>
+      <c r="AO28" s="12">
+        <v>5</v>
+      </c>
+      <c r="AP28" s="13">
+        <v>5</v>
+      </c>
+      <c r="AQ28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS28" s="13">
+        <v>7</v>
+      </c>
+      <c r="AT28" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>100</v>
+      </c>
+      <c r="B29" s="9">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F29" s="10">
+        <v>-2</v>
+      </c>
+      <c r="G29" s="11">
+        <v>-2</v>
+      </c>
+      <c r="H29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I29" s="10">
+        <v>2</v>
+      </c>
+      <c r="J29" s="11">
+        <v>-1</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1</v>
+      </c>
+      <c r="L29" s="10">
+        <v>2</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>5</v>
+      </c>
+      <c r="O29" s="10">
+        <v>5</v>
+      </c>
+      <c r="P29" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R29" s="10">
+        <v>-1</v>
+      </c>
+      <c r="S29" s="11">
+        <v>-1</v>
+      </c>
+      <c r="T29" s="9">
+        <v>1</v>
+      </c>
+      <c r="U29" s="10">
+        <v>-1</v>
+      </c>
+      <c r="V29" s="11">
+        <v>1</v>
+      </c>
+      <c r="W29" s="9">
+        <v>1</v>
+      </c>
+      <c r="X29" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="9">
+        <v>-2</v>
+      </c>
+      <c r="AD29" s="10">
+        <v>2</v>
+      </c>
+      <c r="AE29" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AF29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="10">
+        <v>-8</v>
+      </c>
+      <c r="AH29" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="9">
+        <v>2</v>
+      </c>
+      <c r="AJ29" s="10">
+        <v>3</v>
+      </c>
+      <c r="AK29" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="9">
+        <v>3</v>
+      </c>
+      <c r="AM29" s="10">
+        <v>2</v>
+      </c>
+      <c r="AN29" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="9">
+        <v>5</v>
+      </c>
+      <c r="AP29" s="10">
+        <v>5</v>
+      </c>
+      <c r="AQ29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS29" s="10">
+        <v>2</v>
+      </c>
+      <c r="AT29" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>100</v>
+      </c>
+      <c r="B30" s="12">
+        <v>2</v>
+      </c>
+      <c r="C30" s="13">
+        <v>3</v>
+      </c>
+      <c r="D30" s="14">
+        <v>2</v>
+      </c>
+      <c r="E30" s="12">
+        <v>-2</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1</v>
+      </c>
+      <c r="G30" s="14">
+        <v>4</v>
+      </c>
+      <c r="H30" s="12">
+        <v>-3</v>
+      </c>
+      <c r="I30" s="13">
+        <v>-2</v>
+      </c>
+      <c r="J30" s="14">
+        <v>-3</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
+      <c r="L30" s="13">
+        <v>1</v>
+      </c>
+      <c r="M30" s="14">
+        <v>0</v>
+      </c>
+      <c r="N30" s="12">
+        <v>5</v>
+      </c>
+      <c r="O30" s="13">
+        <v>4</v>
+      </c>
+      <c r="P30" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>2</v>
+      </c>
+      <c r="R30" s="13">
+        <v>-1</v>
+      </c>
+      <c r="S30" s="14">
+        <v>0</v>
+      </c>
+      <c r="T30" s="12">
+        <v>1</v>
+      </c>
+      <c r="U30" s="13">
+        <v>5</v>
+      </c>
+      <c r="V30" s="14">
+        <v>-1</v>
+      </c>
+      <c r="W30" s="12">
+        <v>1</v>
+      </c>
+      <c r="X30" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="12">
+        <v>-5</v>
+      </c>
+      <c r="AD30" s="13">
+        <v>-6</v>
+      </c>
+      <c r="AE30" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AF30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI30" s="12">
+        <v>6</v>
+      </c>
+      <c r="AJ30" s="13">
+        <v>4</v>
+      </c>
+      <c r="AK30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="12">
+        <v>5</v>
+      </c>
+      <c r="AM30" s="13">
+        <v>5</v>
+      </c>
+      <c r="AN30" s="14">
+        <v>2</v>
+      </c>
+      <c r="AO30" s="12">
+        <v>3</v>
+      </c>
+      <c r="AP30" s="13">
+        <v>4</v>
+      </c>
+      <c r="AQ30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS30" s="13">
+        <v>5</v>
+      </c>
+      <c r="AT30" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>200</v>
+      </c>
+      <c r="B31" s="9">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F31" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="11">
+        <v>-2</v>
+      </c>
+      <c r="H31" s="9">
+        <v>-2</v>
+      </c>
+      <c r="I31" s="10">
+        <v>-2</v>
+      </c>
+      <c r="J31" s="11">
+        <v>-1</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10">
+        <v>1</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9">
+        <v>6</v>
+      </c>
+      <c r="O31" s="10">
+        <v>3</v>
+      </c>
+      <c r="P31" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>1</v>
+      </c>
+      <c r="R31" s="10">
+        <v>6</v>
+      </c>
+      <c r="S31" s="11">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
+        <v>-8</v>
+      </c>
+      <c r="U31" s="10">
+        <v>-1</v>
+      </c>
+      <c r="V31" s="11">
+        <v>-2</v>
+      </c>
+      <c r="W31" s="9">
+        <v>-1</v>
+      </c>
+      <c r="X31" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="9">
+        <v>-3</v>
+      </c>
+      <c r="AD31" s="10">
+        <v>-3</v>
+      </c>
+      <c r="AE31" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AF31" s="9">
+        <v>7</v>
+      </c>
+      <c r="AG31" s="10">
+        <v>-2</v>
+      </c>
+      <c r="AH31" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AI31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM31" s="10">
+        <v>5</v>
+      </c>
+      <c r="AN31" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="10">
+        <v>4</v>
+      </c>
+      <c r="AQ31" s="11">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>200</v>
+      </c>
+      <c r="B32" s="12">
+        <v>0</v>
+      </c>
+      <c r="C32" s="13">
+        <v>2</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
+        <v>-2</v>
+      </c>
+      <c r="F32" s="13">
+        <v>-8</v>
+      </c>
+      <c r="G32" s="14">
+        <v>-3</v>
+      </c>
+      <c r="H32" s="12">
+        <v>-2</v>
+      </c>
+      <c r="I32" s="13">
+        <v>-3</v>
+      </c>
+      <c r="J32" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K32" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="13">
+        <v>1</v>
+      </c>
+      <c r="M32" s="14">
+        <v>0</v>
+      </c>
+      <c r="N32" s="12">
+        <v>3</v>
+      </c>
+      <c r="O32" s="13">
+        <v>3</v>
+      </c>
+      <c r="P32" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R32" s="13">
+        <v>-1</v>
+      </c>
+      <c r="S32" s="14">
+        <v>-1</v>
+      </c>
+      <c r="T32" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U32" s="13">
+        <v>0</v>
+      </c>
+      <c r="V32" s="14">
+        <v>-2</v>
+      </c>
+      <c r="W32" s="12">
+        <v>-1</v>
+      </c>
+      <c r="X32" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AA32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="12">
+        <v>-6</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE32" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AF32" s="12">
+        <v>8</v>
+      </c>
+      <c r="AG32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="12">
+        <v>2</v>
+      </c>
+      <c r="AJ32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="12">
+        <v>6</v>
+      </c>
+      <c r="AM32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="12">
+        <v>3</v>
+      </c>
+      <c r="AP32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" ht="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" hidden="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="B1" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -11147,12 +15681,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11191,81 +15725,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B1" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82" t="s">
+      <c r="B1" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82" t="s">
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82" t="s">
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82" t="s">
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82" t="s">
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82" t="s">
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82" t="s">
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82" t="s">
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82" t="s">
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82" t="s">
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82" t="s">
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82" t="s">
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="83" t="s">
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="82"/>
-      <c r="AT1" s="82"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
@@ -12541,12 +17075,859 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="C2" s="42">
+        <v>6.8</v>
+      </c>
+      <c r="D2" s="42">
+        <v>4</v>
+      </c>
+      <c r="E2" s="42">
+        <v>3.4</v>
+      </c>
+      <c r="F2" s="42">
+        <v>2.4</v>
+      </c>
+      <c r="G2" s="43">
+        <v>2</v>
+      </c>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="C3" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="45">
+        <v>2.6</v>
+      </c>
+      <c r="E3" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="45">
+        <v>-1.4</v>
+      </c>
+      <c r="G3" s="46">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="45">
+        <v>2</v>
+      </c>
+      <c r="C4" s="45">
+        <v>3</v>
+      </c>
+      <c r="D4" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="45">
+        <v>-0.6</v>
+      </c>
+      <c r="F4" s="45">
+        <v>-1.4</v>
+      </c>
+      <c r="G4" s="46">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="45">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C5" s="45">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D5" s="45">
+        <v>2</v>
+      </c>
+      <c r="E5" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="F5" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="46">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="45">
+        <v>8</v>
+      </c>
+      <c r="C6" s="45">
+        <v>7</v>
+      </c>
+      <c r="D6" s="45">
+        <v>5.6</v>
+      </c>
+      <c r="E6" s="45">
+        <v>5</v>
+      </c>
+      <c r="F6" s="45">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G6" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="47">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C7" s="45">
+        <v>-0.4</v>
+      </c>
+      <c r="D7" s="45">
+        <v>-0.2</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="45">
+        <v>-0.4</v>
+      </c>
+      <c r="G7" s="46">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="45">
+        <v>-2.4</v>
+      </c>
+      <c r="C8" s="45">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="45">
+        <v>4</v>
+      </c>
+      <c r="E8" s="45">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F8" s="45">
+        <v>2.6</v>
+      </c>
+      <c r="G8" s="46">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="45">
+        <v>-0.2</v>
+      </c>
+      <c r="C9" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="45">
+        <v>1.4</v>
+      </c>
+      <c r="E9" s="45">
+        <v>1.6</v>
+      </c>
+      <c r="F9" s="45">
+        <v>2</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="45">
+        <v>-0.2</v>
+      </c>
+      <c r="C10" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="46">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="45">
+        <v>-7</v>
+      </c>
+      <c r="C11" s="45">
+        <v>-2.6</v>
+      </c>
+      <c r="D11" s="45">
+        <v>-2.4</v>
+      </c>
+      <c r="E11" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="45">
+        <v>-3.4</v>
+      </c>
+      <c r="G11" s="46">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="47">
+        <v>-2.8</v>
+      </c>
+      <c r="C12" s="47">
+        <v>-0.2</v>
+      </c>
+      <c r="D12" s="47">
+        <v>5.6</v>
+      </c>
+      <c r="E12" s="47">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F12" s="47">
+        <v>2.6</v>
+      </c>
+      <c r="G12" s="46">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="47">
+        <v>3.6</v>
+      </c>
+      <c r="C13" s="47">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D13" s="47">
+        <v>3.6</v>
+      </c>
+      <c r="E13" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="F13" s="47">
+        <v>3.4</v>
+      </c>
+      <c r="G13" s="46">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="47">
+        <v>0</v>
+      </c>
+      <c r="C14" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="D14" s="47">
+        <v>5.4</v>
+      </c>
+      <c r="E14" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="F14" s="47">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G14" s="46">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="47">
+        <v>-0.6</v>
+      </c>
+      <c r="C15" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="D15" s="47">
+        <v>1.6</v>
+      </c>
+      <c r="E15" s="47">
+        <v>0</v>
+      </c>
+      <c r="F15" s="47">
+        <v>3.8</v>
+      </c>
+      <c r="G15" s="48">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="50">
+        <v>3.6</v>
+      </c>
+      <c r="C16" s="50">
+        <v>6.6</v>
+      </c>
+      <c r="D16" s="50">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E16" s="50">
+        <v>2.6</v>
+      </c>
+      <c r="F16" s="50">
+        <v>3</v>
+      </c>
+      <c r="G16" s="51">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="38">
+        <f>AVERAGE(B2:B16)</f>
+        <v>0.85333333333333361</v>
+      </c>
+      <c r="C17" s="38">
+        <f t="shared" ref="C17:G17" si="0">AVERAGE(C2:C16)</f>
+        <v>2.0533333333333332</v>
+      </c>
+      <c r="D17" s="38">
+        <f t="shared" si="0"/>
+        <v>2.56</v>
+      </c>
+      <c r="E17" s="38">
+        <f t="shared" si="0"/>
+        <v>2.08</v>
+      </c>
+      <c r="F17" s="38">
+        <f t="shared" si="0"/>
+        <v>1.52</v>
+      </c>
+      <c r="G17" s="39">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="41">
+        <v>3.2</v>
+      </c>
+      <c r="C20" s="42">
+        <v>5.2</v>
+      </c>
+      <c r="D20" s="42">
+        <v>5</v>
+      </c>
+      <c r="E20" s="42">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F20" s="42">
+        <v>3</v>
+      </c>
+      <c r="G20" s="43">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="45">
+        <v>-1.8</v>
+      </c>
+      <c r="C21" s="45">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="D21" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="E21" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F21" s="45">
+        <v>-0.8</v>
+      </c>
+      <c r="G21" s="46">
+        <v>-1.2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="45">
+        <v>4.2</v>
+      </c>
+      <c r="C22" s="45">
+        <v>3.4</v>
+      </c>
+      <c r="D22" s="45">
+        <v>1.4</v>
+      </c>
+      <c r="E22" s="45">
+        <v>1</v>
+      </c>
+      <c r="F22" s="45">
+        <v>0</v>
+      </c>
+      <c r="G22" s="46">
+        <v>-2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="45">
+        <v>1.8</v>
+      </c>
+      <c r="C23" s="45">
+        <v>1.6</v>
+      </c>
+      <c r="D23" s="45">
+        <v>1.4</v>
+      </c>
+      <c r="E23" s="45">
+        <v>1.8</v>
+      </c>
+      <c r="F23" s="45">
+        <v>1.4</v>
+      </c>
+      <c r="G23" s="46">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="45">
+        <v>7.4</v>
+      </c>
+      <c r="C24" s="45">
+        <v>7.6</v>
+      </c>
+      <c r="D24" s="45">
+        <v>6.2</v>
+      </c>
+      <c r="E24" s="45">
+        <v>4.2</v>
+      </c>
+      <c r="F24" s="45">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G24" s="46">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="47">
+        <v>-2.4</v>
+      </c>
+      <c r="C25" s="45">
+        <v>-0.4</v>
+      </c>
+      <c r="D25" s="45">
+        <v>2.6</v>
+      </c>
+      <c r="E25" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="F25" s="45">
+        <v>-0.6</v>
+      </c>
+      <c r="G25" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="45">
+        <v>-2.8</v>
+      </c>
+      <c r="C26" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="D26" s="45">
+        <v>5.4</v>
+      </c>
+      <c r="E26" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="F26" s="45">
+        <v>3.4</v>
+      </c>
+      <c r="G26" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="45">
+        <v>1</v>
+      </c>
+      <c r="C27" s="45">
+        <v>1.8</v>
+      </c>
+      <c r="D27" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="E27" s="45">
+        <v>1</v>
+      </c>
+      <c r="F27" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="G27" s="46">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="45">
+        <v>-0.2</v>
+      </c>
+      <c r="C28" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="D28" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="F28" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="G28" s="46">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="45">
+        <v>-3.6</v>
+      </c>
+      <c r="C29" s="45">
+        <v>-5.4</v>
+      </c>
+      <c r="D29" s="45">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="G29" s="46">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="C30" s="47">
+        <v>5.8</v>
+      </c>
+      <c r="D30" s="47">
+        <v>2.6</v>
+      </c>
+      <c r="E30" s="47">
+        <v>0</v>
+      </c>
+      <c r="F30" s="47">
+        <v>-0.2</v>
+      </c>
+      <c r="G30" s="46">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="47">
+        <v>1</v>
+      </c>
+      <c r="C31" s="47">
+        <v>2.8</v>
+      </c>
+      <c r="D31" s="47">
+        <v>2.6</v>
+      </c>
+      <c r="E31" s="47">
+        <v>2.6</v>
+      </c>
+      <c r="F31" s="47">
+        <v>2.4</v>
+      </c>
+      <c r="G31" s="46">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="47">
+        <v>1.8</v>
+      </c>
+      <c r="C32" s="47">
+        <v>3.8</v>
+      </c>
+      <c r="D32" s="47">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E32" s="47">
+        <v>5.6</v>
+      </c>
+      <c r="F32" s="47">
+        <v>5.2</v>
+      </c>
+      <c r="G32" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="47">
+        <v>1.2</v>
+      </c>
+      <c r="C33" s="47">
+        <v>3.6</v>
+      </c>
+      <c r="D33" s="47">
+        <v>5</v>
+      </c>
+      <c r="E33" s="47">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F33" s="47">
+        <v>3.8</v>
+      </c>
+      <c r="G33" s="48">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="50">
+        <v>3.6</v>
+      </c>
+      <c r="C34" s="50">
+        <v>5</v>
+      </c>
+      <c r="D34" s="50">
+        <v>5</v>
+      </c>
+      <c r="E34" s="50">
+        <v>5.4</v>
+      </c>
+      <c r="F34" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="G34" s="51">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="36">
+        <f>AVERAGE(B20:B34)</f>
+        <v>1.0133333333333334</v>
+      </c>
+      <c r="C35" s="36">
+        <f t="shared" ref="C35:G35" si="1">AVERAGE(C20:C34)</f>
+        <v>2.3066666666666666</v>
+      </c>
+      <c r="D35" s="36">
+        <f t="shared" si="1"/>
+        <v>2.7866666666666671</v>
+      </c>
+      <c r="E35" s="36">
+        <f t="shared" si="1"/>
+        <v>2.4799999999999995</v>
+      </c>
+      <c r="F35" s="36">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="G35" s="37">
+        <f t="shared" si="1"/>
+        <v>1.0799999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="52">
+        <v>3</v>
+      </c>
+      <c r="C37" s="52">
+        <v>10</v>
+      </c>
+      <c r="D37" s="52">
+        <v>30</v>
+      </c>
+      <c r="E37" s="52">
+        <v>50</v>
+      </c>
+      <c r="F37" s="52">
+        <v>100</v>
+      </c>
+      <c r="G37" s="52">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="K12" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="I6" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12575,7 +17956,7 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -12614,7 +17995,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="84"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="26" t="s">
         <v>19</v>
       </c>
@@ -12651,7 +18032,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -12692,7 +18073,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="26" t="s">
         <v>19</v>
       </c>
@@ -12729,7 +18110,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="92" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -12770,7 +18151,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="84"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
@@ -12807,7 +18188,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="92" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
@@ -12848,7 +18229,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="84"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="26" t="s">
         <v>19</v>
       </c>
@@ -12885,7 +18266,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="92" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -12926,7 +18307,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="84"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="26" t="s">
         <v>19</v>
       </c>
@@ -12963,7 +18344,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="92" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -13004,7 +18385,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="84"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="26" t="s">
         <v>19</v>
       </c>
@@ -13031,7 +18412,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="92" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -13062,7 +18443,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="84"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="26" t="s">
         <v>19</v>
       </c>
@@ -13089,7 +18470,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="92" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -13120,7 +18501,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="84"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="26" t="s">
         <v>19</v>
       </c>
@@ -13147,7 +18528,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="92" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -13168,7 +18549,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="84"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="26" t="s">
         <v>19</v>
       </c>
@@ -13185,7 +18566,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="92" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="26" t="s">
@@ -13206,7 +18587,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="84"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="26" t="s">
         <v>19</v>
       </c>
@@ -13223,7 +18604,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="92" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="26" t="s">
@@ -13235,7 +18616,7 @@
       <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="84"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="26" t="s">
         <v>19</v>
       </c>
@@ -13244,7 +18625,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="92" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -13255,7 +18636,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="84"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="26" t="s">
         <v>19</v>
       </c>
@@ -13264,7 +18645,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="92" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="26" t="s">
@@ -13275,7 +18656,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="84"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="26" t="s">
         <v>19</v>
       </c>
@@ -13284,7 +18665,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="92" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="26" t="s">
@@ -13295,7 +18676,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="84"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="26" t="s">
         <v>19</v>
       </c>
@@ -13304,7 +18685,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="92" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -13315,7 +18696,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="84"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="26" t="s">
         <v>19</v>
       </c>
@@ -13348,859 +18729,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41">
-        <v>3.8</v>
-      </c>
-      <c r="C2" s="42">
-        <v>6.8</v>
-      </c>
-      <c r="D2" s="42">
-        <v>4</v>
-      </c>
-      <c r="E2" s="42">
-        <v>3.4</v>
-      </c>
-      <c r="F2" s="42">
-        <v>2.4</v>
-      </c>
-      <c r="G2" s="43">
-        <v>2</v>
-      </c>
-      <c r="I2" s="33"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="45">
-        <v>0.6</v>
-      </c>
-      <c r="C3" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="D3" s="45">
-        <v>2.6</v>
-      </c>
-      <c r="E3" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="F3" s="45">
-        <v>-1.4</v>
-      </c>
-      <c r="G3" s="46">
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="45">
-        <v>2</v>
-      </c>
-      <c r="C4" s="45">
-        <v>3</v>
-      </c>
-      <c r="D4" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="E4" s="45">
-        <v>-0.6</v>
-      </c>
-      <c r="F4" s="45">
-        <v>-1.4</v>
-      </c>
-      <c r="G4" s="46">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="45">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C5" s="45">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D5" s="45">
-        <v>2</v>
-      </c>
-      <c r="E5" s="45">
-        <v>1.2</v>
-      </c>
-      <c r="F5" s="45">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="46">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="45">
-        <v>8</v>
-      </c>
-      <c r="C6" s="45">
-        <v>7</v>
-      </c>
-      <c r="D6" s="45">
-        <v>5.6</v>
-      </c>
-      <c r="E6" s="45">
-        <v>5</v>
-      </c>
-      <c r="F6" s="45">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G6" s="46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="47">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C7" s="45">
-        <v>-0.4</v>
-      </c>
-      <c r="D7" s="45">
-        <v>-0.2</v>
-      </c>
-      <c r="E7" s="45">
-        <v>0.6</v>
-      </c>
-      <c r="F7" s="45">
-        <v>-0.4</v>
-      </c>
-      <c r="G7" s="46">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="45">
-        <v>-2.4</v>
-      </c>
-      <c r="C8" s="45">
-        <v>-1</v>
-      </c>
-      <c r="D8" s="45">
-        <v>4</v>
-      </c>
-      <c r="E8" s="45">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F8" s="45">
-        <v>2.6</v>
-      </c>
-      <c r="G8" s="46">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="45">
-        <v>-0.2</v>
-      </c>
-      <c r="C9" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="D9" s="45">
-        <v>1.4</v>
-      </c>
-      <c r="E9" s="45">
-        <v>1.6</v>
-      </c>
-      <c r="F9" s="45">
-        <v>2</v>
-      </c>
-      <c r="G9" s="46">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="45">
-        <v>-0.2</v>
-      </c>
-      <c r="C10" s="45">
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="E10" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="F10" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="G10" s="46">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="45">
-        <v>-7</v>
-      </c>
-      <c r="C11" s="45">
-        <v>-2.6</v>
-      </c>
-      <c r="D11" s="45">
-        <v>-2.4</v>
-      </c>
-      <c r="E11" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="F11" s="45">
-        <v>-3.4</v>
-      </c>
-      <c r="G11" s="46">
-        <v>-2.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="47">
-        <v>-2.8</v>
-      </c>
-      <c r="C12" s="47">
-        <v>-0.2</v>
-      </c>
-      <c r="D12" s="47">
-        <v>5.6</v>
-      </c>
-      <c r="E12" s="47">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F12" s="47">
-        <v>2.6</v>
-      </c>
-      <c r="G12" s="46">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="47">
-        <v>3.6</v>
-      </c>
-      <c r="C13" s="47">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D13" s="47">
-        <v>3.6</v>
-      </c>
-      <c r="E13" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="F13" s="47">
-        <v>3.4</v>
-      </c>
-      <c r="G13" s="46">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="47">
-        <v>0</v>
-      </c>
-      <c r="C14" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="D14" s="47">
-        <v>5.4</v>
-      </c>
-      <c r="E14" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="F14" s="47">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G14" s="46">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="47">
-        <v>-0.6</v>
-      </c>
-      <c r="C15" s="47">
-        <v>0.8</v>
-      </c>
-      <c r="D15" s="47">
-        <v>1.6</v>
-      </c>
-      <c r="E15" s="47">
-        <v>0</v>
-      </c>
-      <c r="F15" s="47">
-        <v>3.8</v>
-      </c>
-      <c r="G15" s="48">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="50">
-        <v>3.6</v>
-      </c>
-      <c r="C16" s="50">
-        <v>6.6</v>
-      </c>
-      <c r="D16" s="50">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E16" s="50">
-        <v>2.6</v>
-      </c>
-      <c r="F16" s="50">
-        <v>3</v>
-      </c>
-      <c r="G16" s="51">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="38">
-        <f>AVERAGE(B2:B16)</f>
-        <v>0.85333333333333361</v>
-      </c>
-      <c r="C17" s="38">
-        <f t="shared" ref="C17:G17" si="0">AVERAGE(C2:C16)</f>
-        <v>2.0533333333333332</v>
-      </c>
-      <c r="D17" s="38">
-        <f t="shared" si="0"/>
-        <v>2.56</v>
-      </c>
-      <c r="E17" s="38">
-        <f t="shared" si="0"/>
-        <v>2.08</v>
-      </c>
-      <c r="F17" s="38">
-        <f t="shared" si="0"/>
-        <v>1.52</v>
-      </c>
-      <c r="G17" s="39">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="41">
-        <v>3.2</v>
-      </c>
-      <c r="C20" s="42">
-        <v>5.2</v>
-      </c>
-      <c r="D20" s="42">
-        <v>5</v>
-      </c>
-      <c r="E20" s="42">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F20" s="42">
-        <v>3</v>
-      </c>
-      <c r="G20" s="43">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="45">
-        <v>-1.8</v>
-      </c>
-      <c r="C21" s="45">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="D21" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="E21" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="F21" s="45">
-        <v>-0.8</v>
-      </c>
-      <c r="G21" s="46">
-        <v>-1.2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="45">
-        <v>4.2</v>
-      </c>
-      <c r="C22" s="45">
-        <v>3.4</v>
-      </c>
-      <c r="D22" s="45">
-        <v>1.4</v>
-      </c>
-      <c r="E22" s="45">
-        <v>1</v>
-      </c>
-      <c r="F22" s="45">
-        <v>0</v>
-      </c>
-      <c r="G22" s="46">
-        <v>-2</v>
-      </c>
-      <c r="I22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="45">
-        <v>1.8</v>
-      </c>
-      <c r="C23" s="45">
-        <v>1.6</v>
-      </c>
-      <c r="D23" s="45">
-        <v>1.4</v>
-      </c>
-      <c r="E23" s="45">
-        <v>1.8</v>
-      </c>
-      <c r="F23" s="45">
-        <v>1.4</v>
-      </c>
-      <c r="G23" s="46">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="45">
-        <v>7.4</v>
-      </c>
-      <c r="C24" s="45">
-        <v>7.6</v>
-      </c>
-      <c r="D24" s="45">
-        <v>6.2</v>
-      </c>
-      <c r="E24" s="45">
-        <v>4.2</v>
-      </c>
-      <c r="F24" s="45">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G24" s="46">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="47">
-        <v>-2.4</v>
-      </c>
-      <c r="C25" s="45">
-        <v>-0.4</v>
-      </c>
-      <c r="D25" s="45">
-        <v>2.6</v>
-      </c>
-      <c r="E25" s="45">
-        <v>1.2</v>
-      </c>
-      <c r="F25" s="45">
-        <v>-0.6</v>
-      </c>
-      <c r="G25" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="45">
-        <v>-2.8</v>
-      </c>
-      <c r="C26" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="D26" s="45">
-        <v>5.4</v>
-      </c>
-      <c r="E26" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="F26" s="45">
-        <v>3.4</v>
-      </c>
-      <c r="G26" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="45">
-        <v>1</v>
-      </c>
-      <c r="C27" s="45">
-        <v>1.8</v>
-      </c>
-      <c r="D27" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="E27" s="45">
-        <v>1</v>
-      </c>
-      <c r="F27" s="45">
-        <v>1.2</v>
-      </c>
-      <c r="G27" s="46">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="45">
-        <v>-0.2</v>
-      </c>
-      <c r="C28" s="45">
-        <v>1.2</v>
-      </c>
-      <c r="D28" s="45">
-        <v>0.2</v>
-      </c>
-      <c r="E28" s="45">
-        <v>1.2</v>
-      </c>
-      <c r="F28" s="45">
-        <v>0.2</v>
-      </c>
-      <c r="G28" s="46">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="45">
-        <v>-3.6</v>
-      </c>
-      <c r="C29" s="45">
-        <v>-5.4</v>
-      </c>
-      <c r="D29" s="45">
-        <v>-1</v>
-      </c>
-      <c r="E29" s="45">
-        <v>0.2</v>
-      </c>
-      <c r="F29" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="G29" s="46">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="47">
-        <v>0.8</v>
-      </c>
-      <c r="C30" s="47">
-        <v>5.8</v>
-      </c>
-      <c r="D30" s="47">
-        <v>2.6</v>
-      </c>
-      <c r="E30" s="47">
-        <v>0</v>
-      </c>
-      <c r="F30" s="47">
-        <v>-0.2</v>
-      </c>
-      <c r="G30" s="46">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="47">
-        <v>1</v>
-      </c>
-      <c r="C31" s="47">
-        <v>2.8</v>
-      </c>
-      <c r="D31" s="47">
-        <v>2.6</v>
-      </c>
-      <c r="E31" s="47">
-        <v>2.6</v>
-      </c>
-      <c r="F31" s="47">
-        <v>2.4</v>
-      </c>
-      <c r="G31" s="46">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="47">
-        <v>1.8</v>
-      </c>
-      <c r="C32" s="47">
-        <v>3.8</v>
-      </c>
-      <c r="D32" s="47">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E32" s="47">
-        <v>5.6</v>
-      </c>
-      <c r="F32" s="47">
-        <v>5.2</v>
-      </c>
-      <c r="G32" s="46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="47">
-        <v>1.2</v>
-      </c>
-      <c r="C33" s="47">
-        <v>3.6</v>
-      </c>
-      <c r="D33" s="47">
-        <v>5</v>
-      </c>
-      <c r="E33" s="47">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F33" s="47">
-        <v>3.8</v>
-      </c>
-      <c r="G33" s="48">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="50">
-        <v>3.6</v>
-      </c>
-      <c r="C34" s="50">
-        <v>5</v>
-      </c>
-      <c r="D34" s="50">
-        <v>5</v>
-      </c>
-      <c r="E34" s="50">
-        <v>5.4</v>
-      </c>
-      <c r="F34" s="50">
-        <v>3.2</v>
-      </c>
-      <c r="G34" s="51">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="36">
-        <f>AVERAGE(B20:B34)</f>
-        <v>1.0133333333333334</v>
-      </c>
-      <c r="C35" s="36">
-        <f t="shared" ref="C35:G35" si="1">AVERAGE(C20:C34)</f>
-        <v>2.3066666666666666</v>
-      </c>
-      <c r="D35" s="36">
-        <f t="shared" si="1"/>
-        <v>2.7866666666666671</v>
-      </c>
-      <c r="E35" s="36">
-        <f t="shared" si="1"/>
-        <v>2.4799999999999995</v>
-      </c>
-      <c r="F35" s="36">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="G35" s="37">
-        <f t="shared" si="1"/>
-        <v>1.0799999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="52">
-        <v>3</v>
-      </c>
-      <c r="C37" s="52">
-        <v>10</v>
-      </c>
-      <c r="D37" s="52">
-        <v>30</v>
-      </c>
-      <c r="E37" s="52">
-        <v>50</v>
-      </c>
-      <c r="F37" s="52">
-        <v>100</v>
-      </c>
-      <c r="G37" s="52">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A3AAC4-126F-469C-9A5F-C1CBAB3949BB}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14434,59 +18968,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDD11B8-46B9-4961-9D32-42D33168D534}">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="8.7265625" style="81"/>
-    <col min="15" max="15" width="8.7265625" style="95"/>
+    <col min="15" max="15" width="8.7265625" style="88"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="85"/>
       <c r="H1" s="58"/>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="86"/>
       <c r="H2" s="59"/>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A3" s="60" t="s">
@@ -14507,10 +19041,10 @@
       <c r="F3" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="89"/>
+      <c r="H3" s="82"/>
       <c r="I3" s="60" t="s">
         <v>76</v>
       </c>
@@ -14529,7 +19063,7 @@
       <c r="N3" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="90" t="s">
+      <c r="O3" s="83" t="s">
         <v>102</v>
       </c>
     </row>
@@ -14552,11 +19086,11 @@
       <c r="F4" s="77">
         <v>2.1720091192278801E-6</v>
       </c>
-      <c r="G4" s="94" t="str">
+      <c r="G4" s="87" t="str">
         <f>IF(F4&lt;=0.05,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="H4" s="91"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="74" t="s">
         <v>85</v>
       </c>
@@ -14575,7 +19109,7 @@
       <c r="N4" s="77">
         <v>3.47781456966345E-7</v>
       </c>
-      <c r="O4" s="96" t="str">
+      <c r="O4" s="89" t="str">
         <f>IF(N4&lt;=0.05,"Yes","No")</f>
         <v>Yes</v>
       </c>
@@ -14600,11 +19134,11 @@
       <c r="F5" s="78">
         <v>5.5860155750986399E-5</v>
       </c>
-      <c r="G5" s="94" t="str">
+      <c r="G5" s="87" t="str">
         <f t="shared" ref="G5:G18" si="0">IF(F5&lt;=0.05,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="H5" s="91"/>
+      <c r="H5" s="84"/>
       <c r="I5" s="75" t="s">
         <v>84</v>
       </c>
@@ -14623,7 +19157,7 @@
       <c r="N5" s="78">
         <v>5.5296111023395198E-6</v>
       </c>
-      <c r="O5" s="96" t="str">
+      <c r="O5" s="89" t="str">
         <f t="shared" ref="O5:O18" si="1">IF(N5&lt;=0.05,"Yes","No")</f>
         <v>Yes</v>
       </c>
@@ -14648,11 +19182,11 @@
       <c r="F6" s="78">
         <v>6.8892505676876298E-5</v>
       </c>
-      <c r="G6" s="94" t="str">
+      <c r="G6" s="87" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="H6" s="91"/>
+      <c r="H6" s="84"/>
       <c r="I6" s="75" t="s">
         <v>83</v>
       </c>
@@ -14671,7 +19205,7 @@
       <c r="N6" s="78">
         <v>1.5273565732165701E-5</v>
       </c>
-      <c r="O6" s="96" t="str">
+      <c r="O6" s="89" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
@@ -14696,11 +19230,11 @@
       <c r="F7" s="69">
         <v>8.37321541359759E-2</v>
       </c>
-      <c r="G7" s="94" t="str">
+      <c r="G7" s="87" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H7" s="91"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="75" t="s">
         <v>89</v>
       </c>
@@ -14719,7 +19253,7 @@
       <c r="N7" s="78">
         <v>1.73038327573316E-4</v>
       </c>
-      <c r="O7" s="96" t="str">
+      <c r="O7" s="89" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
@@ -14744,11 +19278,11 @@
       <c r="F8" s="69">
         <v>0.102178767184005</v>
       </c>
-      <c r="G8" s="94" t="str">
+      <c r="G8" s="87" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H8" s="91"/>
+      <c r="H8" s="84"/>
       <c r="I8" s="75" t="s">
         <v>88</v>
       </c>
@@ -14767,7 +19301,7 @@
       <c r="N8" s="78">
         <v>1.5395134929341299E-3</v>
       </c>
-      <c r="O8" s="96" t="str">
+      <c r="O8" s="89" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
@@ -14792,11 +19326,11 @@
       <c r="F9" s="69">
         <v>0.16013058021996601</v>
       </c>
-      <c r="G9" s="94" t="str">
+      <c r="G9" s="87" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H9" s="91"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="75" t="s">
         <v>87</v>
       </c>
@@ -14815,7 +19349,7 @@
       <c r="N9" s="78">
         <v>3.3919223806955202E-3</v>
       </c>
-      <c r="O9" s="96" t="str">
+      <c r="O9" s="89" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
@@ -14840,11 +19374,11 @@
       <c r="F10" s="69">
         <v>0.19286691123557601</v>
       </c>
-      <c r="G10" s="94" t="str">
+      <c r="G10" s="87" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H10" s="91"/>
+      <c r="H10" s="84"/>
       <c r="I10" s="75" t="s">
         <v>82</v>
       </c>
@@ -14863,7 +19397,7 @@
       <c r="N10" s="78">
         <v>2.5140697552945599E-2</v>
       </c>
-      <c r="O10" s="96" t="str">
+      <c r="O10" s="89" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
@@ -14888,11 +19422,11 @@
       <c r="F11" s="69">
         <v>0.48709980489104499</v>
       </c>
-      <c r="G11" s="94" t="str">
+      <c r="G11" s="87" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H11" s="91"/>
+      <c r="H11" s="84"/>
       <c r="I11" s="66" t="s">
         <v>92</v>
       </c>
@@ -14911,7 +19445,7 @@
       <c r="N11" s="69">
         <v>0.217857018537266</v>
       </c>
-      <c r="O11" s="96" t="str">
+      <c r="O11" s="89" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
@@ -14936,11 +19470,11 @@
       <c r="F12" s="69">
         <v>0.54270925116482605</v>
       </c>
-      <c r="G12" s="94" t="str">
+      <c r="G12" s="87" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H12" s="91"/>
+      <c r="H12" s="84"/>
       <c r="I12" s="66" t="s">
         <v>86</v>
       </c>
@@ -14959,7 +19493,7 @@
       <c r="N12" s="69">
         <v>0.781803724476546</v>
       </c>
-      <c r="O12" s="96" t="str">
+      <c r="O12" s="89" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
@@ -14984,11 +19518,11 @@
       <c r="F13" s="69">
         <v>0.57248654188244996</v>
       </c>
-      <c r="G13" s="94" t="str">
+      <c r="G13" s="87" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H13" s="91"/>
+      <c r="H13" s="84"/>
       <c r="I13" s="66" t="s">
         <v>91</v>
       </c>
@@ -15007,7 +19541,7 @@
       <c r="N13" s="69">
         <v>0.781803724476546</v>
       </c>
-      <c r="O13" s="96" t="str">
+      <c r="O13" s="89" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
@@ -15032,11 +19566,11 @@
       <c r="F14" s="69">
         <v>0.63622320806850197</v>
       </c>
-      <c r="G14" s="94" t="str">
+      <c r="G14" s="87" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H14" s="91"/>
+      <c r="H14" s="84"/>
       <c r="I14" s="66" t="s">
         <v>81</v>
       </c>
@@ -15055,7 +19589,7 @@
       <c r="N14" s="69">
         <v>1</v>
       </c>
-      <c r="O14" s="96" t="str">
+      <c r="O14" s="89" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
@@ -15080,11 +19614,11 @@
       <c r="F15" s="69">
         <v>1</v>
       </c>
-      <c r="G15" s="94" t="str">
+      <c r="G15" s="87" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H15" s="91"/>
+      <c r="H15" s="84"/>
       <c r="I15" s="66" t="s">
         <v>90</v>
       </c>
@@ -15103,7 +19637,7 @@
       <c r="N15" s="69">
         <v>1</v>
       </c>
-      <c r="O15" s="96" t="str">
+      <c r="O15" s="89" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
@@ -15128,11 +19662,11 @@
       <c r="F16" s="69">
         <v>1</v>
       </c>
-      <c r="G16" s="94" t="str">
+      <c r="G16" s="87" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H16" s="91"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="66" t="s">
         <v>93</v>
       </c>
@@ -15151,7 +19685,7 @@
       <c r="N16" s="69">
         <v>1</v>
       </c>
-      <c r="O16" s="96" t="str">
+      <c r="O16" s="89" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
@@ -15176,11 +19710,11 @@
       <c r="F17" s="69">
         <v>1</v>
       </c>
-      <c r="G17" s="94" t="str">
+      <c r="G17" s="87" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H17" s="91"/>
+      <c r="H17" s="84"/>
       <c r="I17" s="66" t="s">
         <v>94</v>
       </c>
@@ -15199,7 +19733,7 @@
       <c r="N17" s="69">
         <v>1</v>
       </c>
-      <c r="O17" s="96" t="str">
+      <c r="O17" s="89" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
@@ -15224,11 +19758,11 @@
       <c r="F18" s="73">
         <v>1</v>
       </c>
-      <c r="G18" s="94" t="str">
+      <c r="G18" s="87" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H18" s="91"/>
+      <c r="H18" s="84"/>
       <c r="I18" s="70" t="s">
         <v>95</v>
       </c>
@@ -15247,53 +19781,53 @@
       <c r="N18" s="73">
         <v>1</v>
       </c>
-      <c r="O18" s="96" t="str">
+      <c r="O18" s="89" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P18" s="79"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="G19" s="93"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="93"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="86"/>
       <c r="H20" s="59"/>
-      <c r="I20" s="88" t="s">
+      <c r="I20" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
     </row>
     <row r="21" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="I21" s="88" t="s">
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="I21" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="76"/>

--- a/stata/data.xlsx
+++ b/stata/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\code_tesis\stata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2554B746-D326-4504-8140-8C195273AB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A73088-6935-47D8-9796-207574413C69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" tabRatio="777" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" tabRatio="777" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_etapa1(sorted)" sheetId="8" r:id="rId1"/>
@@ -1295,6 +1295,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1316,10 +1320,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6108,15 +6108,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6717,8 +6717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBB609A-CF8A-4DBB-8D5C-A51EA3349F2D}">
   <dimension ref="A1:AT48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6757,81 +6757,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90" t="s">
+      <c r="B1" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90" t="s">
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90" t="s">
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90" t="s">
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90" t="s">
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90" t="s">
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90" t="s">
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90" t="s">
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90" t="s">
+      <c r="AG1" s="94"/>
+      <c r="AH1" s="94"/>
+      <c r="AI1" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90" t="s">
+      <c r="AJ1" s="94"/>
+      <c r="AK1" s="94"/>
+      <c r="AL1" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AM1" s="94"/>
+      <c r="AN1" s="94"/>
+      <c r="AO1" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="91" t="s">
+      <c r="AP1" s="94"/>
+      <c r="AQ1" s="94"/>
+      <c r="AR1" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
+      <c r="AS1" s="94"/>
+      <c r="AT1" s="94"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -9354,142 +9354,142 @@
       </c>
     </row>
     <row r="20" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="97">
+      <c r="A20" s="90">
         <v>200</v>
       </c>
-      <c r="B20" s="98">
-        <v>3</v>
-      </c>
-      <c r="C20" s="99">
-        <v>3</v>
-      </c>
-      <c r="D20" s="100">
-        <v>0</v>
-      </c>
-      <c r="E20" s="98">
+      <c r="B20" s="91">
+        <v>3</v>
+      </c>
+      <c r="C20" s="92">
+        <v>3</v>
+      </c>
+      <c r="D20" s="93">
+        <v>0</v>
+      </c>
+      <c r="E20" s="91">
         <v>-3</v>
       </c>
-      <c r="F20" s="99">
-        <v>2</v>
-      </c>
-      <c r="G20" s="100">
+      <c r="F20" s="92">
+        <v>2</v>
+      </c>
+      <c r="G20" s="93">
         <v>-3</v>
       </c>
-      <c r="H20" s="98">
-        <v>-1</v>
-      </c>
-      <c r="I20" s="99">
-        <v>-1</v>
-      </c>
-      <c r="J20" s="100">
-        <v>1</v>
-      </c>
-      <c r="K20" s="98">
-        <v>0</v>
-      </c>
-      <c r="L20" s="99">
-        <v>1</v>
-      </c>
-      <c r="M20" s="100">
-        <v>0</v>
-      </c>
-      <c r="N20" s="98">
-        <v>3</v>
-      </c>
-      <c r="O20" s="99">
-        <v>4</v>
-      </c>
-      <c r="P20" s="100">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="98">
+      <c r="H20" s="91">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="92">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="93">
+        <v>1</v>
+      </c>
+      <c r="K20" s="91">
+        <v>0</v>
+      </c>
+      <c r="L20" s="92">
+        <v>1</v>
+      </c>
+      <c r="M20" s="93">
+        <v>0</v>
+      </c>
+      <c r="N20" s="91">
+        <v>3</v>
+      </c>
+      <c r="O20" s="92">
+        <v>4</v>
+      </c>
+      <c r="P20" s="93">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="91">
         <v>-7</v>
       </c>
-      <c r="R20" s="99">
-        <v>-1</v>
-      </c>
-      <c r="S20" s="100">
-        <v>-1</v>
-      </c>
-      <c r="T20" s="98">
-        <v>5</v>
-      </c>
-      <c r="U20" s="99">
+      <c r="R20" s="92">
+        <v>-1</v>
+      </c>
+      <c r="S20" s="93">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="91">
+        <v>5</v>
+      </c>
+      <c r="U20" s="92">
         <v>-2</v>
       </c>
-      <c r="V20" s="100">
-        <v>-1</v>
-      </c>
-      <c r="W20" s="98">
-        <v>2</v>
-      </c>
-      <c r="X20" s="99">
-        <v>-1</v>
-      </c>
-      <c r="Y20" s="100">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="98">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="99">
-        <v>2</v>
-      </c>
-      <c r="AB20" s="100">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="98">
+      <c r="V20" s="93">
+        <v>-1</v>
+      </c>
+      <c r="W20" s="91">
+        <v>2</v>
+      </c>
+      <c r="X20" s="92">
+        <v>-1</v>
+      </c>
+      <c r="Y20" s="93">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="91">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="92">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="93">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="91">
         <v>-3</v>
       </c>
-      <c r="AD20" s="99">
-        <v>2</v>
-      </c>
-      <c r="AE20" s="100">
-        <v>2</v>
-      </c>
-      <c r="AF20" s="98">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="99">
+      <c r="AD20" s="92">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="93">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="91">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="92">
         <v>7</v>
       </c>
-      <c r="AH20" s="100">
-        <v>-1</v>
-      </c>
-      <c r="AI20" s="98">
-        <v>2</v>
-      </c>
-      <c r="AJ20" s="99">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="100">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="98">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="99">
-        <v>4</v>
-      </c>
-      <c r="AN20" s="100">
-        <v>-1</v>
-      </c>
-      <c r="AO20" s="98">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="99">
-        <v>3</v>
-      </c>
-      <c r="AQ20" s="100">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="99">
-        <v>3</v>
-      </c>
-      <c r="AS20" s="99">
-        <v>2</v>
-      </c>
-      <c r="AT20" s="100">
+      <c r="AH20" s="93">
+        <v>-1</v>
+      </c>
+      <c r="AI20" s="91">
+        <v>2</v>
+      </c>
+      <c r="AJ20" s="92">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="93">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="92">
+        <v>4</v>
+      </c>
+      <c r="AN20" s="93">
+        <v>-1</v>
+      </c>
+      <c r="AO20" s="91">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="92">
+        <v>3</v>
+      </c>
+      <c r="AQ20" s="93">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="92">
+        <v>3</v>
+      </c>
+      <c r="AS20" s="92">
+        <v>2</v>
+      </c>
+      <c r="AT20" s="93">
         <v>2</v>
       </c>
     </row>
@@ -11177,12 +11177,6 @@
     <row r="48" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
@@ -11192,6 +11186,12 @@
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11203,7 +11203,7 @@
   <dimension ref="A1:AT32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11242,81 +11242,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90" t="s">
+      <c r="B1" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90" t="s">
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90" t="s">
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90" t="s">
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90" t="s">
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90" t="s">
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90" t="s">
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90" t="s">
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90" t="s">
+      <c r="AG1" s="94"/>
+      <c r="AH1" s="94"/>
+      <c r="AI1" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90" t="s">
+      <c r="AJ1" s="94"/>
+      <c r="AK1" s="94"/>
+      <c r="AL1" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AM1" s="94"/>
+      <c r="AN1" s="94"/>
+      <c r="AO1" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="91" t="s">
+      <c r="AP1" s="94"/>
+      <c r="AQ1" s="94"/>
+      <c r="AR1" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
+      <c r="AS1" s="94"/>
+      <c r="AT1" s="94"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -15660,6 +15660,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="B1:D1"/>
@@ -15669,12 +15675,6 @@
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15685,8 +15685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15725,81 +15725,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90" t="s">
+      <c r="B1" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90" t="s">
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90" t="s">
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90" t="s">
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90" t="s">
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90" t="s">
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90" t="s">
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90" t="s">
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90" t="s">
+      <c r="AG1" s="94"/>
+      <c r="AH1" s="94"/>
+      <c r="AI1" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90" t="s">
+      <c r="AJ1" s="94"/>
+      <c r="AK1" s="94"/>
+      <c r="AL1" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AM1" s="94"/>
+      <c r="AN1" s="94"/>
+      <c r="AO1" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="91" t="s">
+      <c r="AP1" s="94"/>
+      <c r="AQ1" s="94"/>
+      <c r="AR1" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
+      <c r="AS1" s="94"/>
+      <c r="AT1" s="94"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
@@ -17053,12 +17053,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
@@ -17068,6 +17062,12 @@
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17080,7 +17080,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17926,8 +17926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="I6" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="I1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17956,7 +17956,7 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="96" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -17995,7 +17995,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="26" t="s">
         <v>19</v>
       </c>
@@ -18032,7 +18032,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="96" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -18073,7 +18073,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="92"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="26" t="s">
         <v>19</v>
       </c>
@@ -18110,7 +18110,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -18151,7 +18151,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="92"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
@@ -18188,7 +18188,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="96" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
@@ -18229,7 +18229,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="92"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="26" t="s">
         <v>19</v>
       </c>
@@ -18266,7 +18266,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="96" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -18307,7 +18307,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="92"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="26" t="s">
         <v>19</v>
       </c>
@@ -18344,7 +18344,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -18385,7 +18385,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="26" t="s">
         <v>19</v>
       </c>
@@ -18412,7 +18412,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="96" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -18443,7 +18443,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="92"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="26" t="s">
         <v>19</v>
       </c>
@@ -18470,7 +18470,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="96" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -18501,7 +18501,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="92"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="26" t="s">
         <v>19</v>
       </c>
@@ -18528,7 +18528,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="96" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -18549,7 +18549,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="92"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="26" t="s">
         <v>19</v>
       </c>
@@ -18566,7 +18566,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="96" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="26" t="s">
@@ -18587,7 +18587,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="92"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="26" t="s">
         <v>19</v>
       </c>
@@ -18604,7 +18604,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="96" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="26" t="s">
@@ -18616,7 +18616,7 @@
       <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="92"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="26" t="s">
         <v>19</v>
       </c>
@@ -18625,7 +18625,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="96" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -18636,7 +18636,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="92"/>
+      <c r="A25" s="96"/>
       <c r="B25" s="26" t="s">
         <v>19</v>
       </c>
@@ -18645,7 +18645,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="96" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="26" t="s">
@@ -18656,7 +18656,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="92"/>
+      <c r="A27" s="96"/>
       <c r="B27" s="26" t="s">
         <v>19</v>
       </c>
@@ -18665,7 +18665,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="96" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="26" t="s">
@@ -18676,7 +18676,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="92"/>
+      <c r="A29" s="96"/>
       <c r="B29" s="26" t="s">
         <v>19</v>
       </c>
@@ -18685,7 +18685,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="96" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -18696,7 +18696,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="92"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="26" t="s">
         <v>19</v>
       </c>
@@ -18706,12 +18706,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
@@ -18721,6 +18715,12 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18972,7 +18972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDD11B8-46B9-4961-9D32-42D33168D534}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -18983,44 +18983,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="85"/>
       <c r="H1" s="58"/>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="86"/>
       <c r="H2" s="59"/>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
     </row>
     <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A3" s="60" t="s">
@@ -19792,42 +19792,42 @@
       <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
       <c r="G20" s="86"/>
       <c r="H20" s="59"/>
-      <c r="I20" s="96" t="s">
+      <c r="I20" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
     </row>
     <row r="21" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="I21" s="96" t="s">
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="I21" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="76"/>

--- a/stata/data.xlsx
+++ b/stata/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\code_tesis\stata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\code_tesis\stata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA15E6C-EADA-4404-883B-91CA22B5A645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="-110" windowWidth="18450" windowHeight="11020" tabRatio="777" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="-105" windowWidth="18450" windowHeight="11025" tabRatio="777" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data_etapa1" sheetId="1" r:id="rId1"/>
@@ -558,7 +557,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1247,6 +1246,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1268,19 +1276,10 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet2" xfId="1" xr:uid="{ABEBB385-1A27-4D3C-87B2-E3AED347C856}"/>
+    <cellStyle name="Normal_Sheet2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1303,7 +1302,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1317,8 +1316,8 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -1326,16 +1325,13 @@
           <c:tx>
             <c:v>back - multiTAC</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="stdErr"/>
             <c:noEndCap val="0"/>
           </c:errBars>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>data_means!$B$37:$G$37</c:f>
               <c:numCache>
@@ -1361,8 +1357,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>data_means!$B$17:$G$17</c:f>
               <c:numCache>
@@ -1388,8 +1384,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-EA35-4A71-A41B-B084AD072FC3}"/>
@@ -1402,16 +1398,40 @@
           <c:tx>
             <c:v>forearm - multiTAC</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="stdErr"/>
             <c:noEndCap val="0"/>
           </c:errBars>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data_means!$B$37:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>data_means!$B$35:$G$35</c:f>
               <c:numCache>
@@ -1437,65 +1457,15 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-EA35-4A71-A41B-B084AD072FC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>forearm - tactors</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-          </c:errBars>
-          <c:val>
-            <c:numRef>
-              <c:f>data_means!$B$55:$G$55</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2533333333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.1066666666666669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2933333333333332</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.41333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.13333333333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1702-45AC-AA09-0ED4B9797D8E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1503,14 +1473,105 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="628649263"/>
         <c:axId val="628651759"/>
-      </c:lineChart>
-      <c:catAx>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>forearm - tactors</c:v>
+                </c:tx>
+                <c:errBars>
+                  <c:errDir val="y"/>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="stdErr"/>
+                  <c:noEndCap val="0"/>
+                </c:errBars>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>data_means!$B$37:$G$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>data_means!$B$55:$G$55</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1.32</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.2533333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.1066666666666669</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.2933333333333332</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.41333333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-0.13333333333333333</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-1702-45AC-AA09-0ED4B9797D8E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="628649263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1535,6 +1596,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
@@ -1571,16 +1633,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628651759"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="628651759"/>
         <c:scaling>
@@ -1622,6 +1681,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
@@ -1652,16 +1712,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628649263"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1675,7 +1736,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1689,7 +1750,454 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>forearm - multiTAC</c:v>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data_means!$B$37:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data_means!$B$35:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0133333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3066666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7866666666666671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-74D8-4386-8B90-6AA41CE02071}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>forearm - tactors</c:v>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data_means!$B$37:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data_means!$B$55:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2533333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1066666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2933333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.13333333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-74D8-4386-8B90-6AA41CE02071}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="628649263"/>
+        <c:axId val="628651759"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>back - multiTAC</c:v>
+                </c:tx>
+                <c:errBars>
+                  <c:errDir val="y"/>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="stdErr"/>
+                  <c:noEndCap val="0"/>
+                </c:errBars>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>data_means!$B$37:$G$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>data_means!$B$17:$G$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0.85333333333333361</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.0533333333333332</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.56</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.08</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.52</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-74D8-4386-8B90-6AA41CE02071}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="628649263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Velocity</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (cm/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628651759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="628651759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>VAS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> rating</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628649263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1975,7 +2483,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -2014,7 +2522,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2044,7 +2552,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2055,10 +2563,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2374,7 +2882,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -2413,7 +2921,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2443,7 +2951,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3582,6 +4090,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>524847</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>126351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>459196</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>168619</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4076,126 +4622,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B1" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90" t="s">
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90" t="s">
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90" t="s">
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90" t="s">
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90" t="s">
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90" t="s">
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90" t="s">
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90" t="s">
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90" t="s">
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90" t="s">
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="91" t="s">
+      <c r="AP1" s="93"/>
+      <c r="AQ1" s="93"/>
+      <c r="AR1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AS1" s="93"/>
+      <c r="AT1" s="93"/>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4335,7 +4881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -4475,7 +5021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4615,7 +5161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4755,7 +5301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -4895,7 +5441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -5035,7 +5581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -5175,7 +5721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10</v>
       </c>
@@ -5315,7 +5861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -5455,7 +6001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5595,7 +6141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -5735,7 +6281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30</v>
       </c>
@@ -5875,7 +6421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>30</v>
       </c>
@@ -6015,7 +6561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>30</v>
       </c>
@@ -6155,7 +6701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>30</v>
       </c>
@@ -6295,7 +6841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>30</v>
       </c>
@@ -6435,7 +6981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>50</v>
       </c>
@@ -6575,7 +7121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>50</v>
       </c>
@@ -6715,7 +7261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>50</v>
       </c>
@@ -6855,7 +7401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>50</v>
       </c>
@@ -6995,7 +7541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>50</v>
       </c>
@@ -7135,7 +7681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>100</v>
       </c>
@@ -7275,7 +7821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>100</v>
       </c>
@@ -7415,7 +7961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>100</v>
       </c>
@@ -7555,7 +8101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>100</v>
       </c>
@@ -7695,7 +8241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>100</v>
       </c>
@@ -7835,7 +8381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>200</v>
       </c>
@@ -7975,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>200</v>
       </c>
@@ -8115,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>200</v>
       </c>
@@ -8255,7 +8801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>200</v>
       </c>
@@ -8395,7 +8941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>200</v>
       </c>
@@ -8537,12 +9083,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="B1:D1"/>
@@ -8552,6 +9092,12 @@
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8559,126 +9105,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT8"/>
   <sheetViews>
     <sheetView topLeftCell="AF1" workbookViewId="0">
       <selection activeCell="AT3" activeCellId="3" sqref="AK3:AK8 AN3:AN8 AQ3:AQ8 AT3:AT8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B1" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90" t="s">
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90" t="s">
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90" t="s">
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90" t="s">
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90" t="s">
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90" t="s">
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90" t="s">
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90" t="s">
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90" t="s">
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90" t="s">
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="91" t="s">
+      <c r="AP1" s="93"/>
+      <c r="AQ1" s="93"/>
+      <c r="AR1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AS1" s="93"/>
+      <c r="AT1" s="93"/>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -8818,7 +9364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>3</v>
       </c>
@@ -8958,7 +9504,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>10</v>
       </c>
@@ -9098,7 +9644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>30</v>
       </c>
@@ -9238,7 +9784,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>50</v>
       </c>
@@ -9378,7 +9924,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>100</v>
       </c>
@@ -9518,7 +10064,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>200</v>
       </c>
@@ -9660,6 +10206,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
@@ -9669,12 +10221,6 @@
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9682,22 +10228,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
@@ -9720,7 +10266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -9744,7 +10290,7 @@
       </c>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
@@ -9767,7 +10313,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>6</v>
       </c>
@@ -9790,7 +10336,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>7</v>
       </c>
@@ -9813,7 +10359,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>8</v>
       </c>
@@ -9836,7 +10382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>9</v>
       </c>
@@ -9859,7 +10405,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>10</v>
       </c>
@@ -9882,7 +10428,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
         <v>11</v>
       </c>
@@ -9905,7 +10451,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>12</v>
       </c>
@@ -9928,7 +10474,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>13</v>
       </c>
@@ -9951,7 +10497,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>14</v>
       </c>
@@ -9974,7 +10520,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>15</v>
       </c>
@@ -9997,7 +10543,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>16</v>
       </c>
@@ -10020,7 +10566,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>17</v>
       </c>
@@ -10043,7 +10589,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>18</v>
       </c>
@@ -10066,7 +10612,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>28</v>
       </c>
@@ -10095,7 +10641,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>27</v>
       </c>
@@ -10118,7 +10664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>1</v>
       </c>
@@ -10141,7 +10687,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>5</v>
       </c>
@@ -10164,7 +10710,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>6</v>
       </c>
@@ -10187,7 +10733,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>7</v>
       </c>
@@ -10210,7 +10756,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>8</v>
       </c>
@@ -10233,7 +10779,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>9</v>
       </c>
@@ -10256,7 +10802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>10</v>
       </c>
@@ -10279,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>11</v>
       </c>
@@ -10302,7 +10848,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
         <v>12</v>
       </c>
@@ -10325,7 +10871,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>13</v>
       </c>
@@ -10348,7 +10894,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
         <v>14</v>
       </c>
@@ -10371,7 +10917,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
         <v>15</v>
       </c>
@@ -10394,7 +10940,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
         <v>16</v>
       </c>
@@ -10417,7 +10963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>17</v>
       </c>
@@ -10440,7 +10986,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>18</v>
       </c>
@@ -10463,7 +11009,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
         <v>28</v>
       </c>
@@ -10492,7 +11038,7 @@
         <v>1.0799999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -10515,30 +11061,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="97" t="s">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="98" t="s">
+      <c r="C39" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="98" t="s">
+      <c r="D39" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="98" t="s">
+      <c r="E39" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="98" t="s">
+      <c r="F39" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="99" t="s">
+      <c r="G39" s="92" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>1</v>
       </c>
@@ -10561,7 +11107,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>5</v>
       </c>
@@ -10584,7 +11130,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>6</v>
       </c>
@@ -10607,7 +11153,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>7</v>
       </c>
@@ -10630,7 +11176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>8</v>
       </c>
@@ -10653,7 +11199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
         <v>9</v>
       </c>
@@ -10676,7 +11222,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
         <v>10</v>
       </c>
@@ -10699,7 +11245,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
         <v>11</v>
       </c>
@@ -10722,7 +11268,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
         <v>12</v>
       </c>
@@ -10745,7 +11291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>13</v>
       </c>
@@ -10768,7 +11314,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
         <v>14</v>
       </c>
@@ -10791,7 +11337,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
         <v>15</v>
       </c>
@@ -10814,7 +11360,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
         <v>16</v>
       </c>
@@ -10837,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
         <v>17</v>
       </c>
@@ -10860,7 +11406,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
         <v>18</v>
       </c>
@@ -10883,7 +11429,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
         <v>28</v>
       </c>
@@ -10920,40 +11466,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -10991,8 +11537,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="95"/>
       <c r="B3" s="26" t="s">
         <v>19</v>
       </c>
@@ -11028,8 +11574,8 @@
         <v>-51.909836908582008</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="92" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="95" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -11069,8 +11615,8 @@
         <v>-16.787752939325998</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="92"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="95"/>
       <c r="B5" s="26" t="s">
         <v>19</v>
       </c>
@@ -11106,8 +11652,8 @@
         <v>140.98577050404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="92" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -11147,8 +11693,8 @@
         <v>-5.3980582428834936</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="92"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="95"/>
       <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
@@ -11184,8 +11730,8 @@
         <v>43.2443003435165</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="92" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
@@ -11225,8 +11771,8 @@
         <v>-29.154999944890008</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="92"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="95"/>
       <c r="B9" s="26" t="s">
         <v>19</v>
       </c>
@@ -11262,8 +11808,8 @@
         <v>12.354248511615992</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="92" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="95" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -11303,8 +11849,8 @@
         <v>23.457122031931007</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="92"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="95"/>
       <c r="B11" s="26" t="s">
         <v>19</v>
       </c>
@@ -11340,8 +11886,8 @@
         <v>8.5265087852170041</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="92" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="95" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -11381,8 +11927,8 @@
         <v>165.93498341246439</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="95"/>
       <c r="B13" s="26" t="s">
         <v>19</v>
       </c>
@@ -11408,8 +11954,8 @@
         <v>144.75613593385901</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="92" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="95" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -11439,8 +11985,8 @@
         <v>120.822654362254</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="92"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="95"/>
       <c r="B15" s="26" t="s">
         <v>19</v>
       </c>
@@ -11466,8 +12012,8 @@
         <v>108.46840585063801</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="92" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="95" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -11497,8 +12043,8 @@
         <v>125.701450889059</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="92"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="95"/>
       <c r="B17" s="26" t="s">
         <v>19</v>
       </c>
@@ -11524,8 +12070,8 @@
         <v>102.244328857128</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="92" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="95" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -11545,8 +12091,8 @@
         <v>109.13523678902</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="92"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="95"/>
       <c r="B19" s="26" t="s">
         <v>19</v>
       </c>
@@ -11562,8 +12108,8 @@
         <v>100.60872800380299</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="92" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="95" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="26" t="s">
@@ -11583,8 +12129,8 @@
         <v>195.13509868333799</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="92"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="95"/>
       <c r="B21" s="26" t="s">
         <v>19</v>
       </c>
@@ -11600,8 +12146,8 @@
         <v>29.200115270873599</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="92" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="95" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="26" t="s">
@@ -11612,8 +12158,8 @@
       </c>
       <c r="D22" s="31"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="92"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="95"/>
       <c r="B23" s="26" t="s">
         <v>19</v>
       </c>
@@ -11621,8 +12167,8 @@
         <v>108.46840585063801</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="92" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="95" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -11632,8 +12178,8 @@
         <v>-52.167502463847903</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="92"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="95"/>
       <c r="B25" s="26" t="s">
         <v>19</v>
       </c>
@@ -11641,8 +12187,8 @@
         <v>76.945796094475796</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="92" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="95" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="26" t="s">
@@ -11652,8 +12198,8 @@
         <v>125.701450889059</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="92"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="95"/>
       <c r="B27" s="26" t="s">
         <v>19</v>
       </c>
@@ -11661,8 +12207,8 @@
         <v>102.244328857128</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="92" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="95" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="26" t="s">
@@ -11672,8 +12218,8 @@
         <v>109.13523678902</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="92"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="95"/>
       <c r="B29" s="26" t="s">
         <v>19</v>
       </c>
@@ -11681,8 +12227,8 @@
         <v>100.60872800380299</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="92" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="95" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -11692,8 +12238,8 @@
         <v>195.13509868333799</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="92"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="95"/>
       <c r="B31" s="26" t="s">
         <v>19</v>
       </c>
@@ -11703,6 +12249,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
@@ -11712,12 +12264,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11727,21 +12273,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A3AAC4-126F-469C-9A5F-C1CBAB3949BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="4" max="4" width="35.6328125" customWidth="1"/>
-    <col min="9" max="9" width="30.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -11752,7 +12298,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>49</v>
       </c>
@@ -11760,7 +12306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>31</v>
       </c>
@@ -11768,12 +12314,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -11784,7 +12330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -11795,7 +12341,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -11806,7 +12352,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -11817,7 +12363,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -11828,7 +12374,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -11839,7 +12385,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -11850,7 +12396,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -11861,7 +12407,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -11872,7 +12418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -11883,7 +12429,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>32</v>
       </c>
@@ -11891,7 +12437,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -11899,7 +12445,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -11913,7 +12459,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>57</v>
       </c>
@@ -11921,7 +12467,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -11929,7 +12475,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -11943,7 +12489,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D21" s="56" t="s">
         <v>57</v>
       </c>
@@ -11951,7 +12497,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="118.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="174" x14ac:dyDescent="0.25">
       <c r="D24" s="57" t="s">
         <v>71</v>
       </c>
@@ -11966,60 +12512,60 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDD11B8-46B9-4961-9D32-42D33168D534}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="8.7265625" style="81"/>
-    <col min="15" max="15" width="8.7265625" style="88"/>
+    <col min="7" max="7" width="8.7109375" style="81"/>
+    <col min="15" max="15" width="8.7109375" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
       <c r="G1" s="85"/>
       <c r="H1" s="58"/>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="86"/>
       <c r="H2" s="59"/>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-    </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+    </row>
+    <row r="3" spans="1:16" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>74</v>
       </c>
@@ -12064,7 +12610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>83</v>
       </c>
@@ -12112,7 +12658,7 @@
       </c>
       <c r="P4" s="79"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="75" t="s">
         <v>82</v>
       </c>
@@ -12160,7 +12706,7 @@
       </c>
       <c r="P5" s="79"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
         <v>81</v>
       </c>
@@ -12208,7 +12754,7 @@
       </c>
       <c r="P6" s="79"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
         <v>90</v>
       </c>
@@ -12256,7 +12802,7 @@
       </c>
       <c r="P7" s="79"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
         <v>87</v>
       </c>
@@ -12304,7 +12850,7 @@
       </c>
       <c r="P8" s="79"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="66" t="s">
         <v>79</v>
       </c>
@@ -12352,7 +12898,7 @@
       </c>
       <c r="P9" s="79"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
         <v>80</v>
       </c>
@@ -12400,7 +12946,7 @@
       </c>
       <c r="P10" s="79"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
         <v>89</v>
       </c>
@@ -12448,7 +12994,7 @@
       </c>
       <c r="P11" s="79"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
         <v>88</v>
       </c>
@@ -12496,7 +13042,7 @@
       </c>
       <c r="P12" s="79"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
         <v>86</v>
       </c>
@@ -12544,7 +13090,7 @@
       </c>
       <c r="P13" s="79"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
         <v>85</v>
       </c>
@@ -12592,7 +13138,7 @@
       </c>
       <c r="P14" s="79"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="66" t="s">
         <v>96</v>
       </c>
@@ -12640,7 +13186,7 @@
       </c>
       <c r="P15" s="79"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="66" t="s">
         <v>91</v>
       </c>
@@ -12688,7 +13234,7 @@
       </c>
       <c r="P16" s="79"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="66" t="s">
         <v>92</v>
       </c>
@@ -12736,7 +13282,7 @@
       </c>
       <c r="P17" s="79"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
         <v>93</v>
       </c>
@@ -12784,49 +13330,49 @@
       </c>
       <c r="P18" s="79"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G19" s="86"/>
       <c r="H19" s="59"/>
     </row>
-    <row r="20" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="96" t="s">
+    <row r="20" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
       <c r="G20" s="86"/>
       <c r="H20" s="59"/>
-      <c r="I20" s="96" t="s">
+      <c r="I20" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-    </row>
-    <row r="21" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="94" t="s">
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+    </row>
+    <row r="21" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="I21" s="96" t="s">
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="I21" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="76"/>
       <c r="I22" s="76"/>
     </row>
